--- a/output/keyword_analysis.xlsx
+++ b/output/keyword_analysis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t xml:space="preserve">donor_type</t>
   </si>
@@ -37,33 +37,45 @@
     <t xml:space="preserve">donor_name</t>
   </si>
   <si>
+    <t xml:space="preserve">United Kingdom</t>
+  </si>
+  <si>
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">United Kingdom</t>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
   </si>
   <si>
     <t xml:space="preserve">International Development Association</t>
   </si>
   <si>
+    <t xml:space="preserve">Poland</t>
+  </si>
+  <si>
     <t xml:space="preserve">EU Institutions</t>
   </si>
   <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
     <t xml:space="preserve">Germany</t>
   </si>
   <si>
-    <t xml:space="preserve">Canada</t>
+    <t xml:space="preserve">Italy</t>
   </si>
   <si>
     <t xml:space="preserve">Sweden</t>
   </si>
   <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
@@ -73,16 +85,16 @@
     <t xml:space="preserve">Central Emergency Response Fund</t>
   </si>
   <si>
+    <t xml:space="preserve">Israel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kuwait</t>
   </si>
   <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
+    <t xml:space="preserve">Switzerland</t>
   </si>
   <si>
     <t xml:space="preserve">Council of Europe Development Bank</t>
@@ -91,150 +103,144 @@
     <t xml:space="preserve">Asian Development Bank</t>
   </si>
   <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Norway</t>
   </si>
   <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
     <t xml:space="preserve">United Arab Emirates</t>
   </si>
   <si>
+    <t xml:space="preserve">UNHCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czechia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Central American Bank for Economic Integration</t>
   </si>
   <si>
-    <t xml:space="preserve">Ireland</t>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
   </si>
   <si>
     <t xml:space="preserve">Islamic Development Bank</t>
   </si>
   <si>
-    <t xml:space="preserve">UNHCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
     <t xml:space="preserve">Denmark</t>
   </si>
   <si>
     <t xml:space="preserve">Korea</t>
   </si>
   <si>
-    <t xml:space="preserve">Finland</t>
+    <t xml:space="preserve">Türkiye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter-American Development Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Health Organisation</t>
   </si>
   <si>
     <t xml:space="preserve">Arab Fund (AFESD)</t>
   </si>
   <si>
-    <t xml:space="preserve">Inter-American Development Bank</t>
-  </si>
-  <si>
     <t xml:space="preserve">New Zealand</t>
   </si>
   <si>
-    <t xml:space="preserve">Czechia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poland</t>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
   </si>
   <si>
     <t xml:space="preserve">Global Environment Facility</t>
   </si>
   <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg</t>
+    <t xml:space="preserve">Lithuania</t>
   </si>
   <si>
     <t xml:space="preserve">Adaptation Fund</t>
   </si>
   <si>
-    <t xml:space="preserve">World Health Organisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland</t>
-  </si>
-  <si>
     <t xml:space="preserve">Qatar</t>
   </si>
   <si>
-    <t xml:space="preserve">Portugal</t>
+    <t xml:space="preserve">Latvia</t>
   </si>
   <si>
     <t xml:space="preserve">UN Peacebuilding Fund</t>
   </si>
   <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
     <t xml:space="preserve">OPEC Fund for International Development</t>
   </si>
   <si>
+    <t xml:space="preserve">UNAIDS</t>
+  </si>
+  <si>
     <t xml:space="preserve">UNDP</t>
   </si>
   <si>
+    <t xml:space="preserve">Slovak Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Green Climate Fund</t>
   </si>
   <si>
-    <t xml:space="preserve">UNAIDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovak Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
     <t xml:space="preserve">Romania</t>
   </si>
   <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nordic Development Fund</t>
   </si>
   <si>
     <t xml:space="preserve">African Development Bank</t>
   </si>
   <si>
-    <t xml:space="preserve">Türkiye</t>
-  </si>
-  <si>
     <t xml:space="preserve">Climate Investment Funds</t>
   </si>
   <si>
+    <t xml:space="preserve">Global Green Growth Institute</t>
+  </si>
+  <si>
     <t xml:space="preserve">Liechtenstein</t>
   </si>
   <si>
-    <t xml:space="preserve">Global Green Growth Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
+    <t xml:space="preserve">WHO-Strategic Preparedness and Response Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caribbean Development Bank</t>
   </si>
   <si>
     <t xml:space="preserve">International Labour Organisation</t>
   </si>
   <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
     <t xml:space="preserve">WFP</t>
   </si>
   <si>
-    <t xml:space="preserve">Israel</t>
-  </si>
-  <si>
     <t xml:space="preserve">Malta</t>
   </si>
   <si>
-    <t xml:space="preserve">Lithuania</t>
-  </si>
-  <si>
     <t xml:space="preserve">Thailand</t>
   </si>
   <si>
@@ -247,6 +253,9 @@
     <t xml:space="preserve">income_group_name</t>
   </si>
   <si>
+    <t xml:space="preserve">Part I unallocated by income</t>
+  </si>
+  <si>
     <t xml:space="preserve">LDCs</t>
   </si>
   <si>
@@ -262,67 +271,73 @@
     <t xml:space="preserve">MADCTs</t>
   </si>
   <si>
-    <t xml:space="preserve">Part I unallocated by income</t>
-  </si>
-  <si>
     <t xml:space="preserve">recipient_name</t>
   </si>
   <si>
+    <t xml:space="preserve">Bilateral, unspecified</t>
+  </si>
+  <si>
     <t xml:space="preserve">Syrian Arab Republic</t>
   </si>
   <si>
     <t xml:space="preserve">Bangladesh</t>
   </si>
   <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nepal</t>
   </si>
   <si>
     <t xml:space="preserve">South Sudan</t>
   </si>
   <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
     <t xml:space="preserve">Nigeria</t>
   </si>
   <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lebanon</t>
   </si>
   <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Iraq</t>
   </si>
   <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yemen</t>
+    <t xml:space="preserve">Europe, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
   </si>
   <si>
     <t xml:space="preserve">West Bank and Gaza Strip</t>
   </si>
   <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Democratic Republic of the Congo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Peru</t>
   </si>
   <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
     <t xml:space="preserve">India</t>
   </si>
   <si>
     <t xml:space="preserve">Kenya</t>
   </si>
   <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
     <t xml:space="preserve">Venezuela</t>
   </si>
   <si>
-    <t xml:space="preserve">Uzbekistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
+    <t xml:space="preserve">Indonesia</t>
   </si>
   <si>
     <t xml:space="preserve">Colombia</t>
@@ -331,46 +346,52 @@
     <t xml:space="preserve">Bosnia and Herzegovina</t>
   </si>
   <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mexico</t>
   </si>
   <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
+    <t xml:space="preserve">Philippines</t>
   </si>
   <si>
     <t xml:space="preserve">Tunisia</t>
   </si>
   <si>
-    <t xml:space="preserve">Armenia</t>
+    <t xml:space="preserve">Western Africa, regional</t>
   </si>
   <si>
     <t xml:space="preserve">Mali</t>
   </si>
   <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jordan</t>
   </si>
   <si>
-    <t xml:space="preserve">Haiti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Africa, regional</t>
   </si>
   <si>
     <t xml:space="preserve">Cameroon</t>
@@ -382,130 +403,157 @@
     <t xml:space="preserve">Niger</t>
   </si>
   <si>
-    <t xml:space="preserve">Djibouti</t>
+    <t xml:space="preserve">South of Sahara, regional</t>
   </si>
   <si>
     <t xml:space="preserve">Ecuador</t>
   </si>
   <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
     <t xml:space="preserve">Georgia</t>
   </si>
   <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tanzania</t>
   </si>
   <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
     <t xml:space="preserve">Honduras</t>
   </si>
   <si>
-    <t xml:space="preserve">Egypt</t>
-  </si>
-  <si>
     <t xml:space="preserve">Central African Republic</t>
   </si>
   <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dominica</t>
   </si>
   <si>
+    <t xml:space="preserve">America, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle East, regional</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brazil</t>
   </si>
   <si>
-    <t xml:space="preserve">Morocco</t>
+    <t xml:space="preserve">South America, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asia, regional</t>
   </si>
   <si>
     <t xml:space="preserve">Guatemala</t>
   </si>
   <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Libya</t>
   </si>
   <si>
     <t xml:space="preserve">Malawi</t>
   </si>
   <si>
-    <t xml:space="preserve">Moldova</t>
+    <t xml:space="preserve">South &amp; Central Asia, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China (People's Republic of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caribbean, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viet Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North of Sahara, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceania, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
   </si>
   <si>
     <t xml:space="preserve">Argentina</t>
   </si>
   <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burundi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China (People's Republic of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyrgyzstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhutan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viet Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Macedonia</t>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
   </si>
   <si>
     <t xml:space="preserve">Madagascar</t>
   </si>
   <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimbabwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao People's Democratic Republic</t>
   </si>
   <si>
     <t xml:space="preserve">Zambia</t>
   </si>
   <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lao People's Democratic Republic</t>
+    <t xml:space="preserve">Caribbean &amp; Central America, regional</t>
   </si>
   <si>
     <t xml:space="preserve">Cabo Verde</t>
@@ -514,226 +562,238 @@
     <t xml:space="preserve">Belarus</t>
   </si>
   <si>
+    <t xml:space="preserve">Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sri Lanka</t>
   </si>
   <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mauritania</t>
   </si>
   <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central America, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosovo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Far East Asia, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Asia, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Asia, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kazakhstan</t>
   </si>
   <si>
-    <t xml:space="preserve">Angola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiribati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosovo</t>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montserrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Africa, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor-Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallis and Futuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">States Ex-Yugoslavia unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuvalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eswatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Sahara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MNP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic People's Republic of Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Helena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seychelles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokelau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
   </si>
   <si>
     <t xml:space="preserve">Uruguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afghanistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montserrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad &amp; Tobago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timor-Leste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Lucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wallis and Futuna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshall Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micronesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuvalu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkmenistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tokelau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovakia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eswatini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nauru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Kitts &amp; Nevis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahamas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Sahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Mariana Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Russia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Helena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">States Ex-Yugoslavia unspecified</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -1262,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>7576.671343</v>
+        <v>19382.530252</v>
       </c>
     </row>
     <row r="3">
@@ -1270,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2619.078189</v>
+        <v>2974.690861</v>
       </c>
     </row>
     <row r="4">
@@ -1278,7 +1338,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>454.86638</v>
+        <v>725.704651</v>
       </c>
     </row>
   </sheetData>
@@ -1309,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>1952.22011</v>
+        <v>6235.027635</v>
       </c>
     </row>
     <row r="3">
@@ -1317,7 +1377,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>1643.956293</v>
+        <v>2022.10681</v>
       </c>
     </row>
     <row r="4">
@@ -1325,7 +1385,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>1163.08569</v>
+        <v>1962.099765</v>
       </c>
     </row>
     <row r="5">
@@ -1333,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>892.799852</v>
+        <v>1803.088541</v>
       </c>
     </row>
     <row r="6">
@@ -1341,7 +1401,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>773.585185000001</v>
+        <v>1451.744962</v>
       </c>
     </row>
     <row r="7">
@@ -1349,7 +1409,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>717.803381</v>
+        <v>1440.302094</v>
       </c>
     </row>
     <row r="8">
@@ -1357,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>623.103855000001</v>
+        <v>1238.368733</v>
       </c>
     </row>
     <row r="9">
@@ -1365,7 +1425,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>581.840701999999</v>
+        <v>1144.575875</v>
       </c>
     </row>
     <row r="10">
@@ -1373,7 +1433,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>422.503347</v>
+        <v>1140.077164</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1441,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>285.559802</v>
+        <v>738.504031</v>
       </c>
     </row>
     <row r="12">
@@ -1389,7 +1449,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>241.16802</v>
+        <v>614.211767</v>
       </c>
     </row>
     <row r="13">
@@ -1397,7 +1457,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>235.216673</v>
+        <v>535.473245</v>
       </c>
     </row>
     <row r="14">
@@ -1405,7 +1465,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>114.367476</v>
+        <v>472.083749</v>
       </c>
     </row>
     <row r="15">
@@ -1413,7 +1473,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>101.338387</v>
+        <v>285.559802</v>
       </c>
     </row>
     <row r="16">
@@ -1421,7 +1481,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>100.606616</v>
+        <v>275.938586</v>
       </c>
     </row>
     <row r="17">
@@ -1429,7 +1489,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>94.327777</v>
+        <v>235.216673</v>
       </c>
     </row>
     <row r="18">
@@ -1437,7 +1497,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>75.813665</v>
+        <v>195.15035</v>
       </c>
     </row>
     <row r="19">
@@ -1445,7 +1505,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>75.258806</v>
+        <v>116.463091</v>
       </c>
     </row>
     <row r="20">
@@ -1453,7 +1513,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>54.483197</v>
+        <v>114.367476</v>
       </c>
     </row>
     <row r="21">
@@ -1461,7 +1521,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>49.325308</v>
+        <v>99.0666879999999</v>
       </c>
     </row>
     <row r="22">
@@ -1469,7 +1529,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>46.864384</v>
+        <v>76.65287</v>
       </c>
     </row>
     <row r="23">
@@ -1477,7 +1537,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>39.32387</v>
+        <v>75.258806</v>
       </c>
     </row>
     <row r="24">
@@ -1485,7 +1545,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>39.001968</v>
+        <v>63.405569</v>
       </c>
     </row>
     <row r="25">
@@ -1493,7 +1553,7 @@
         <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v>35.215741</v>
+        <v>57.237116</v>
       </c>
     </row>
     <row r="26">
@@ -1501,7 +1561,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>28.887</v>
+        <v>53.046604</v>
       </c>
     </row>
     <row r="27">
@@ -1509,7 +1569,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>28.484848</v>
+        <v>52.33526</v>
       </c>
     </row>
     <row r="28">
@@ -1517,7 +1577,7 @@
         <v>32</v>
       </c>
       <c r="B28" t="n">
-        <v>25.532564</v>
+        <v>42.680535</v>
       </c>
     </row>
     <row r="29">
@@ -1525,7 +1585,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="n">
-        <v>25.280148</v>
+        <v>41.78932</v>
       </c>
     </row>
     <row r="30">
@@ -1533,7 +1593,7 @@
         <v>34</v>
       </c>
       <c r="B30" t="n">
-        <v>19.330497</v>
+        <v>39.395973</v>
       </c>
     </row>
     <row r="31">
@@ -1541,7 +1601,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v>18.025157</v>
+        <v>39.32387</v>
       </c>
     </row>
     <row r="32">
@@ -1549,7 +1609,7 @@
         <v>36</v>
       </c>
       <c r="B32" t="n">
-        <v>17.649409</v>
+        <v>38.232049</v>
       </c>
     </row>
     <row r="33">
@@ -1557,7 +1617,7 @@
         <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>14.98314</v>
+        <v>37.914243</v>
       </c>
     </row>
     <row r="34">
@@ -1565,7 +1625,7 @@
         <v>38</v>
       </c>
       <c r="B34" t="n">
-        <v>14.151158</v>
+        <v>35.215741</v>
       </c>
     </row>
     <row r="35">
@@ -1573,7 +1633,7 @@
         <v>39</v>
       </c>
       <c r="B35" t="n">
-        <v>10.638051</v>
+        <v>33.085196</v>
       </c>
     </row>
     <row r="36">
@@ -1581,7 +1641,7 @@
         <v>40</v>
       </c>
       <c r="B36" t="n">
-        <v>9.737114</v>
+        <v>31.234644</v>
       </c>
     </row>
     <row r="37">
@@ -1589,7 +1649,7 @@
         <v>41</v>
       </c>
       <c r="B37" t="n">
-        <v>9.476575</v>
+        <v>27.962704</v>
       </c>
     </row>
     <row r="38">
@@ -1597,7 +1657,7 @@
         <v>42</v>
       </c>
       <c r="B38" t="n">
-        <v>8.781447</v>
+        <v>21.07135</v>
       </c>
     </row>
     <row r="39">
@@ -1605,7 +1665,7 @@
         <v>43</v>
       </c>
       <c r="B39" t="n">
-        <v>7.938817</v>
+        <v>20.693917</v>
       </c>
     </row>
     <row r="40">
@@ -1613,7 +1673,7 @@
         <v>44</v>
       </c>
       <c r="B40" t="n">
-        <v>6.789543</v>
+        <v>20.209025</v>
       </c>
     </row>
     <row r="41">
@@ -1621,7 +1681,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="n">
-        <v>6.557934</v>
+        <v>19.211605</v>
       </c>
     </row>
     <row r="42">
@@ -1629,7 +1689,7 @@
         <v>46</v>
       </c>
       <c r="B42" t="n">
-        <v>6.411185</v>
+        <v>18.025157</v>
       </c>
     </row>
     <row r="43">
@@ -1637,7 +1697,7 @@
         <v>47</v>
       </c>
       <c r="B43" t="n">
-        <v>5.756393</v>
+        <v>14.993281</v>
       </c>
     </row>
     <row r="44">
@@ -1645,7 +1705,7 @@
         <v>48</v>
       </c>
       <c r="B44" t="n">
-        <v>5.413628</v>
+        <v>12.685471</v>
       </c>
     </row>
     <row r="45">
@@ -1653,7 +1713,7 @@
         <v>49</v>
       </c>
       <c r="B45" t="n">
-        <v>5.312179</v>
+        <v>12.448733</v>
       </c>
     </row>
     <row r="46">
@@ -1661,7 +1721,7 @@
         <v>50</v>
       </c>
       <c r="B46" t="n">
-        <v>2.939179</v>
+        <v>12.105882</v>
       </c>
     </row>
     <row r="47">
@@ -1669,7 +1729,7 @@
         <v>51</v>
       </c>
       <c r="B47" t="n">
-        <v>2.542751</v>
+        <v>9.84379</v>
       </c>
     </row>
     <row r="48">
@@ -1677,7 +1737,7 @@
         <v>52</v>
       </c>
       <c r="B48" t="n">
-        <v>2.165747</v>
+        <v>9.737114</v>
       </c>
     </row>
     <row r="49">
@@ -1685,7 +1745,7 @@
         <v>53</v>
       </c>
       <c r="B49" t="n">
-        <v>1.588943</v>
+        <v>9.704341</v>
       </c>
     </row>
     <row r="50">
@@ -1693,7 +1753,7 @@
         <v>54</v>
       </c>
       <c r="B50" t="n">
-        <v>1.127149</v>
+        <v>6.789543</v>
       </c>
     </row>
     <row r="51">
@@ -1701,7 +1761,7 @@
         <v>55</v>
       </c>
       <c r="B51" t="n">
-        <v>1.019783</v>
+        <v>5.756393</v>
       </c>
     </row>
     <row r="52">
@@ -1709,7 +1769,7 @@
         <v>56</v>
       </c>
       <c r="B52" t="n">
-        <v>0.890299</v>
+        <v>5.638795</v>
       </c>
     </row>
     <row r="53">
@@ -1717,7 +1777,7 @@
         <v>57</v>
       </c>
       <c r="B53" t="n">
-        <v>0.797345</v>
+        <v>5.312179</v>
       </c>
     </row>
     <row r="54">
@@ -1725,7 +1785,7 @@
         <v>58</v>
       </c>
       <c r="B54" t="n">
-        <v>0.701326</v>
+        <v>2.83011</v>
       </c>
     </row>
     <row r="55">
@@ -1733,7 +1793,7 @@
         <v>59</v>
       </c>
       <c r="B55" t="n">
-        <v>0.585693</v>
+        <v>2.726278</v>
       </c>
     </row>
     <row r="56">
@@ -1741,7 +1801,7 @@
         <v>60</v>
       </c>
       <c r="B56" t="n">
-        <v>0.550302</v>
+        <v>2.217788</v>
       </c>
     </row>
     <row r="57">
@@ -1749,7 +1809,7 @@
         <v>61</v>
       </c>
       <c r="B57" t="n">
-        <v>0.525744</v>
+        <v>1.732502</v>
       </c>
     </row>
     <row r="58">
@@ -1757,7 +1817,7 @@
         <v>62</v>
       </c>
       <c r="B58" t="n">
-        <v>0.501457</v>
+        <v>1.588943</v>
       </c>
     </row>
     <row r="59">
@@ -1765,7 +1825,7 @@
         <v>63</v>
       </c>
       <c r="B59" t="n">
-        <v>0.20949</v>
+        <v>0.798616</v>
       </c>
     </row>
     <row r="60">
@@ -1773,7 +1833,7 @@
         <v>64</v>
       </c>
       <c r="B60" t="n">
-        <v>0.178138</v>
+        <v>0.585693</v>
       </c>
     </row>
     <row r="61">
@@ -1781,7 +1841,7 @@
         <v>65</v>
       </c>
       <c r="B61" t="n">
-        <v>0.126196</v>
+        <v>0.550302</v>
       </c>
     </row>
     <row r="62">
@@ -1789,7 +1849,7 @@
         <v>66</v>
       </c>
       <c r="B62" t="n">
-        <v>0.109636</v>
+        <v>0.501457</v>
       </c>
     </row>
     <row r="63">
@@ -1797,7 +1857,7 @@
         <v>67</v>
       </c>
       <c r="B63" t="n">
-        <v>0.061968</v>
+        <v>0.289412</v>
       </c>
     </row>
     <row r="64">
@@ -1805,7 +1865,7 @@
         <v>68</v>
       </c>
       <c r="B64" t="n">
-        <v>0.05574</v>
+        <v>0.20949</v>
       </c>
     </row>
     <row r="65">
@@ -1813,7 +1873,7 @@
         <v>69</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01093</v>
+        <v>0.160793</v>
       </c>
     </row>
     <row r="66">
@@ -1821,7 +1881,7 @@
         <v>70</v>
       </c>
       <c r="B66" t="n">
-        <v>0.010096</v>
+        <v>0.133369</v>
       </c>
     </row>
     <row r="67">
@@ -1829,7 +1889,7 @@
         <v>71</v>
       </c>
       <c r="B67" t="n">
-        <v>0.009682</v>
+        <v>0.109636</v>
       </c>
     </row>
     <row r="68">
@@ -1837,7 +1897,7 @@
         <v>72</v>
       </c>
       <c r="B68" t="n">
-        <v>0.001426</v>
+        <v>0.05574</v>
       </c>
     </row>
     <row r="69">
@@ -1845,7 +1905,7 @@
         <v>73</v>
       </c>
       <c r="B69" t="n">
-        <v>0</v>
+        <v>0.010096</v>
       </c>
     </row>
     <row r="70">
@@ -1853,6 +1913,22 @@
         <v>74</v>
       </c>
       <c r="B70" t="n">
+        <v>0.001426</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+      <c r="B72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1873,7 +1949,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1881,50 +1957,50 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B2" t="n">
-        <v>4795.16403051579</v>
+        <v>33789.4457788207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B3" t="n">
-        <v>3457.07512559131</v>
+        <v>5701.18110773799</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B4" t="n">
-        <v>2950.3689658083</v>
+        <v>3952.35055642211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" t="n">
-        <v>1155.44338580471</v>
+        <v>3090.03839076199</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" t="n">
-        <v>9.09129159590193</v>
+        <v>1424.77092233433</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B7" t="n">
-        <v>0.184432</v>
+        <v>5.847909</v>
       </c>
     </row>
   </sheetData>
@@ -1944,7 +2020,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1952,1354 +2028,1506 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B2" t="n">
-        <v>1155.44338580471</v>
+        <v>32894.0731880109</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B3" t="n">
-        <v>908.836705961666</v>
+        <v>1424.77092233433</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B4" t="n">
-        <v>694.691186003982</v>
+        <v>1086.9306779769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B5" t="n">
-        <v>672.795075586665</v>
+        <v>883.565188342453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B6" t="n">
-        <v>622.895850471473</v>
+        <v>797.207412125521</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B7" t="n">
-        <v>547.243136252835</v>
+        <v>795.871914437046</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B8" t="n">
-        <v>488.875032267464</v>
+        <v>585.121940807967</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B9" t="n">
-        <v>465.159595494826</v>
+        <v>581.535716170256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B10" t="n">
-        <v>408.120365137567</v>
+        <v>537.401626647474</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B11" t="n">
-        <v>399.478158492339</v>
+        <v>493.912093528871</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B12" t="n">
-        <v>386.659087655813</v>
+        <v>473.461740610781</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B13" t="n">
-        <v>330.359533146354</v>
+        <v>456.709208419832</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B14" t="n">
-        <v>328.025924474096</v>
+        <v>443.363382416194</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B15" t="n">
-        <v>306.921080207216</v>
+        <v>418.873015180332</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B16" t="n">
-        <v>285.509946634365</v>
+        <v>389.222672044069</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B17" t="n">
-        <v>242.411210595271</v>
+        <v>348.467522509391</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B18" t="n">
-        <v>200.104225435207</v>
+        <v>261.598228446651</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B19" t="n">
-        <v>187.659067515154</v>
+        <v>251.448802</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="B20" t="n">
-        <v>183.327503927218</v>
+        <v>248.406095825849</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B21" t="n">
-        <v>178.822295419716</v>
+        <v>236.820081870301</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="B22" t="n">
-        <v>170.636985481691</v>
+        <v>232.014953916684</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B23" t="n">
-        <v>145.173734968073</v>
+        <v>201.209519195437</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B24" t="n">
-        <v>128.549526008001</v>
+        <v>182.536737471808</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B25" t="n">
-        <v>127.107104322471</v>
+        <v>180.437334420147</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B26" t="n">
-        <v>126.149809131636</v>
+        <v>180.285609473454</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B27" t="n">
-        <v>122.959512242419</v>
+        <v>169.991786441172</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B28" t="n">
-        <v>120.783383885851</v>
+        <v>168.607422402524</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B29" t="n">
-        <v>108.043071143567</v>
+        <v>147.065634603209</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B30" t="n">
-        <v>105.261060840345</v>
+        <v>139.515572303349</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B31" t="n">
-        <v>104.561241062036</v>
+        <v>132.346572387136</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B32" t="n">
-        <v>91.1333673276283</v>
+        <v>126.698518384575</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B33" t="n">
-        <v>83.299412869132</v>
+        <v>122.958049</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B34" t="n">
-        <v>80.1064097916646</v>
+        <v>104.38265533881</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B35" t="n">
-        <v>79.3378442043319</v>
+        <v>100.022496</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B36" t="n">
-        <v>76.2823087847181</v>
+        <v>97.234967</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B37" t="n">
-        <v>75.5997090205927</v>
+        <v>94.9311396195079</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B38" t="n">
-        <v>66.3024616166268</v>
+        <v>83.1493545596507</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B39" t="n">
-        <v>66.1623069220976</v>
+        <v>78.3201231690439</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B40" t="n">
-        <v>62.9834403725246</v>
+        <v>73.2853830874162</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B41" t="n">
-        <v>60.1754993699665</v>
+        <v>69.6059815450674</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B42" t="n">
-        <v>59.8151195792646</v>
+        <v>66.348717</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B43" t="n">
-        <v>57.9123032836809</v>
+        <v>66.1791009073279</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B44" t="n">
-        <v>53.7446133206146</v>
+        <v>62.9023213060895</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B45" t="n">
-        <v>50.1335182964016</v>
+        <v>62.2934952140531</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B46" t="n">
-        <v>49.5131177349338</v>
+        <v>57.4191838797543</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B47" t="n">
-        <v>48.6406394965118</v>
+        <v>56.21429</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B48" t="n">
-        <v>47.6164174520651</v>
+        <v>56.0480303685754</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B49" t="n">
-        <v>42.4628194522868</v>
+        <v>55.969711</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B50" t="n">
-        <v>41.9456020745763</v>
+        <v>51.0696943946282</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B51" t="n">
-        <v>39.6455217983445</v>
+        <v>50.725288</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B52" t="n">
-        <v>38.0098505749963</v>
+        <v>44.819404</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B53" t="n">
-        <v>32.4174812173673</v>
+        <v>44.05819</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B54" t="n">
-        <v>30.9037383962713</v>
+        <v>43.6470263737181</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B55" t="n">
-        <v>30.8630325671603</v>
+        <v>39.131746189471</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B56" t="n">
-        <v>28.9453579775183</v>
+        <v>37.000657</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B57" t="n">
-        <v>28.7084286052756</v>
+        <v>35.716019</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B58" t="n">
-        <v>28.3727673707539</v>
+        <v>31.7442733293217</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B59" t="n">
-        <v>27.2971107321736</v>
+        <v>31.226172</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B60" t="n">
-        <v>27.0083203238622</v>
+        <v>31.216225</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B61" t="n">
-        <v>26.967341717568</v>
+        <v>30.3924625102285</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B62" t="n">
-        <v>23.7891530565348</v>
+        <v>28.943139</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B63" t="n">
-        <v>23.5029800683041</v>
+        <v>26.645583</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B64" t="n">
-        <v>23.3381361230107</v>
+        <v>26.38855</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B65" t="n">
-        <v>22.0584250757024</v>
+        <v>26.192688</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B66" t="n">
-        <v>21.7502763196141</v>
+        <v>26.187617</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B67" t="n">
-        <v>21.595566251678</v>
+        <v>25.087838</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B68" t="n">
-        <v>20.193940107632</v>
+        <v>24.4613447285879</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B69" t="n">
-        <v>19.4301072231077</v>
+        <v>24.251805</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B70" t="n">
-        <v>19.2885636982787</v>
+        <v>23.448019</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B71" t="n">
-        <v>19.0600876736148</v>
+        <v>21.705895</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B72" t="n">
-        <v>17.883635618758</v>
+        <v>21.451258</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B73" t="n">
-        <v>16.7396423891583</v>
+        <v>19.06484</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B74" t="n">
-        <v>16.6849322663631</v>
+        <v>18.846718</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B75" t="n">
-        <v>16.1403001736571</v>
+        <v>17.643351</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B76" t="n">
-        <v>14.7631679178168</v>
+        <v>17.0384775020862</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B77" t="n">
-        <v>14.7491916363111</v>
+        <v>16.23792</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B78" t="n">
-        <v>14.5270525105029</v>
+        <v>16.018877</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B79" t="n">
-        <v>12.8578505577412</v>
+        <v>15.829922</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B80" t="n">
-        <v>11.3230303027026</v>
+        <v>15.805375</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B81" t="n">
-        <v>10.9075008121713</v>
+        <v>14.77278</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B82" t="n">
-        <v>10.4868085710152</v>
+        <v>14.618125</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B83" t="n">
-        <v>8.3566146107063</v>
+        <v>14.45280634919</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B84" t="n">
-        <v>7.86826610131792</v>
+        <v>14.386306</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B85" t="n">
-        <v>7.752462443746</v>
+        <v>14.240553</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B86" t="n">
-        <v>7.31595750534402</v>
+        <v>13.291356</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B87" t="n">
-        <v>7.29134604852555</v>
+        <v>13.268078</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B88" t="n">
-        <v>7.27880129795097</v>
+        <v>12.722243</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="B89" t="n">
-        <v>7.2358519066236</v>
+        <v>12.165227</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B90" t="n">
-        <v>6.80603769290351</v>
+        <v>11.533185</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B91" t="n">
-        <v>6.41012675336711</v>
+        <v>11.224321</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B92" t="n">
-        <v>6.30003263354078</v>
+        <v>11.177527</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B93" t="n">
-        <v>6.1700870796363</v>
+        <v>8.94102</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B94" t="n">
-        <v>6.13957269345914</v>
+        <v>8.21467</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B95" t="n">
-        <v>5.76732239393582</v>
+        <v>8.003944</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B96" t="n">
-        <v>5.63055113531974</v>
+        <v>6.753753</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B97" t="n">
-        <v>5.42428582770494</v>
+        <v>6.506923</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B98" t="n">
-        <v>5.35528162160211</v>
+        <v>5.906101</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B99" t="n">
-        <v>5.15256829795097</v>
+        <v>5.65711</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B100" t="n">
-        <v>4.54951556037305</v>
+        <v>5.266394</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B101" t="n">
-        <v>4.32728003699914</v>
+        <v>5.103123</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B102" t="n">
-        <v>4.21951813029719</v>
+        <v>4.547807</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B103" t="n">
-        <v>3.97715797333215</v>
+        <v>4.212468</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B104" t="n">
-        <v>3.91972774282292</v>
+        <v>4.17428</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B105" t="n">
-        <v>3.82082592631305</v>
+        <v>3.866644</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>185</v>
+        <v>74</v>
       </c>
       <c r="B106" t="n">
-        <v>3.64888977954532</v>
+        <v>3.835015</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B107" t="n">
-        <v>3.58080529795097</v>
+        <v>3.784953</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B108" t="n">
-        <v>3.53623752395482</v>
+        <v>3.77815</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B109" t="n">
-        <v>3.46529815044186</v>
+        <v>3.614614</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B110" t="n">
-        <v>3.290094</v>
+        <v>3.530877</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B111" t="n">
-        <v>2.74333011866157</v>
+        <v>3.368276</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B112" t="n">
-        <v>2.65711829795097</v>
+        <v>3.326894</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B113" t="n">
-        <v>2.50009256400086</v>
+        <v>3.290094</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B114" t="n">
-        <v>2.4510224582363</v>
+        <v>3.284917</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B115" t="n">
-        <v>2.4014151214943</v>
+        <v>3.076449</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B116" t="n">
-        <v>2.40047194469972</v>
+        <v>2.634607</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B117" t="n">
-        <v>2.32416173558759</v>
+        <v>2.313315</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B118" t="n">
-        <v>2.24063656944763</v>
+        <v>2.297146</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B119" t="n">
-        <v>2.23614332273062</v>
+        <v>2.175871</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B120" t="n">
-        <v>2.22607954781504</v>
+        <v>2.1364</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B121" t="n">
-        <v>2.2060531455038</v>
+        <v>2.048846</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B122" t="n">
-        <v>2.09932953457366</v>
+        <v>1.959114</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B123" t="n">
-        <v>2.00645229981982</v>
+        <v>1.885703</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B124" t="n">
-        <v>1.99719092914503</v>
+        <v>1.817077</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B125" t="n">
-        <v>1.98215718094393</v>
+        <v>1.802004</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B126" t="n">
-        <v>1.96440825734005</v>
+        <v>1.696137</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B127" t="n">
-        <v>1.94764655346567</v>
+        <v>1.597176</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B128" t="n">
-        <v>1.87214029795097</v>
+        <v>1.287845</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B129" t="n">
-        <v>1.8352348016243</v>
+        <v>1.035427</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B130" t="n">
-        <v>1.81249029795097</v>
+        <v>0.874387</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B131" t="n">
-        <v>1.80034166240324</v>
+        <v>0.774456</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B132" t="n">
-        <v>1.78687429795097</v>
+        <v>0.700431</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B133" t="n">
-        <v>1.77411929795097</v>
+        <v>0.583065</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>57</v>
+        <v>215</v>
       </c>
       <c r="B134" t="n">
-        <v>1.72702960757744</v>
+        <v>0.530236</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B135" t="n">
-        <v>1.71779929795097</v>
+        <v>0.51103</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B136" t="n">
-        <v>1.71251229795097</v>
+        <v>0.497426</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B137" t="n">
-        <v>1.69750519418572</v>
+        <v>0.425842</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B138" t="n">
-        <v>1.69073129795097</v>
+        <v>0.424355</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B139" t="n">
-        <v>1.65197429795097</v>
+        <v>0.413934</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B140" t="n">
-        <v>1.64922929795097</v>
+        <v>0.360416</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="B141" t="n">
-        <v>1.64689185049318</v>
+        <v>0.34669</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>15</v>
+        <v>223</v>
       </c>
       <c r="B142" t="n">
-        <v>1.64339792038613</v>
+        <v>0.31911</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B143" t="n">
-        <v>1.64042063108628</v>
+        <v>0.250449</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="B144" t="n">
-        <v>1.63467340077575</v>
+        <v>0.211585</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B145" t="n">
-        <v>1.63467340077575</v>
+        <v>0.190799</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="B146" t="n">
-        <v>1.62805218094393</v>
+        <v>0.184432</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B147" t="n">
-        <v>1.62666329795097</v>
+        <v>0.165183</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="B148" t="n">
-        <v>1.62666329795097</v>
+        <v>0.152428</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B149" t="n">
-        <v>1.62373073558759</v>
+        <v>0.096108</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B150" t="n">
-        <v>1.62373073558759</v>
+        <v>0.090821</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B151" t="n">
-        <v>1.62169129795097</v>
+        <v>0.07225</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B152" t="n">
-        <v>1.62169129795097</v>
+        <v>0.06904</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B153" t="n">
-        <v>1.62169129795097</v>
+        <v>0.030283</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B154" t="n">
-        <v>1.62169129795097</v>
+        <v>0.027538</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>38</v>
+        <v>236</v>
       </c>
       <c r="B155" t="n">
-        <v>1.62169129795097</v>
+        <v>0.006311</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B156" t="n">
-        <v>1.62169129795097</v>
+        <v>0.004972</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>7</v>
+        <v>238</v>
       </c>
       <c r="B157" t="n">
-        <v>1.62169129795097</v>
+        <v>0.004972</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>69</v>
+        <v>239</v>
       </c>
       <c r="B158" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>20</v>
+        <v>240</v>
       </c>
       <c r="B159" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="B160" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="B161" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B162" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B163" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B164" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>235</v>
+        <v>11</v>
       </c>
       <c r="B165" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B166" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="B167" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B168" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B169" t="n">
-        <v>1.60216039885199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>238</v>
+        <v>49</v>
       </c>
       <c r="B170" t="n">
-        <v>0.184432</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>22</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>16</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>248</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>53</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>249</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>250</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>251</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>13</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>252</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>63</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>253</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>19</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>254</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>61</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>48</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>255</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>256</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>257</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>258</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3319,19 +3547,19 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="E1" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
@@ -3339,16 +3567,16 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C2" t="n">
-        <v>2.4014151214943</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.06323224742199</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.73959799556662</v>
+        <v>-4.77083509312256</v>
       </c>
     </row>
     <row r="3">
@@ -3356,16 +3584,16 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C3" t="n">
-        <v>2.55410213531974</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.24293540092263</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>3.86526886971685</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="4">
@@ -3373,16 +3601,16 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="C4" t="n">
-        <v>2.23584675336712</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.920634702694023</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>3.5510588040402</v>
+        <v>-7.5344666441071</v>
       </c>
     </row>
     <row r="5">
@@ -3390,16 +3618,16 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C5" t="n">
-        <v>15.9861856052756</v>
+        <v>3.20111951022849</v>
       </c>
       <c r="D5" t="n">
-        <v>11.7281024461428</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>20.2442687644085</v>
+        <v>10.5802163807457</v>
       </c>
     </row>
     <row r="6">
@@ -3407,16 +3635,16 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="C6" t="n">
-        <v>20.1250683276283</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>18.6663298332835</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>21.5838068219731</v>
+        <v>-14.5674060712493</v>
       </c>
     </row>
     <row r="7">
@@ -3424,16 +3652,16 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>196</v>
       </c>
       <c r="C7" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>2.94824957359221</v>
+        <v>-4.93031829495308</v>
       </c>
     </row>
     <row r="8">
@@ -3441,16 +3669,16 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C8" t="n">
-        <v>1.80967182770494</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.486854216990991</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>3.13248943841889</v>
+        <v>-6.85348913173452</v>
       </c>
     </row>
     <row r="9">
@@ -3458,16 +3686,16 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="C9" t="n">
-        <v>4.94243505653484</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>3.66664518329484</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>6.21822492977484</v>
+        <v>-58.635479222843</v>
       </c>
     </row>
     <row r="10">
@@ -3475,16 +3703,16 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>114</v>
       </c>
       <c r="C10" t="n">
-        <v>2.40244113029719</v>
+        <v>55.6902193845745</v>
       </c>
       <c r="D10" t="n">
-        <v>1.08120246675257</v>
+        <v>48.2491527772468</v>
       </c>
       <c r="E10" t="n">
-        <v>3.72367979384183</v>
+        <v>63.1312859919022</v>
       </c>
     </row>
     <row r="11">
@@ -3492,16 +3720,16 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="C11" t="n">
-        <v>9.12923692209761</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7.88414226719982</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>10.3743315769953</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="12">
@@ -3509,16 +3737,16 @@
         <v>2023</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
+        <v>190</v>
       </c>
       <c r="C12" t="n">
-        <v>74.7562729616659</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>70.8481276895818</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>78.6644182337501</v>
+        <v>-7.94638138029691</v>
       </c>
     </row>
     <row r="13">
@@ -3526,16 +3754,16 @@
         <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>227</v>
+        <v>138</v>
       </c>
       <c r="C13" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2.94824957359221</v>
+        <v>5.85030999924106</v>
       </c>
     </row>
     <row r="14">
@@ -3543,16 +3771,16 @@
         <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="C14" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.94824957359221</v>
+        <v>1.45580223285609</v>
       </c>
     </row>
     <row r="15">
@@ -3560,16 +3788,16 @@
         <v>2023</v>
       </c>
       <c r="B15" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="C15" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2.94824957359221</v>
+        <v>-11.4613174952736</v>
       </c>
     </row>
     <row r="16">
@@ -3577,16 +3805,16 @@
         <v>2023</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>126</v>
       </c>
       <c r="C16" t="n">
-        <v>19.9175239680733</v>
+        <v>5.86925130608944</v>
       </c>
       <c r="D16" t="n">
-        <v>18.4634191283864</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>21.3716288077603</v>
+        <v>13.113091207727</v>
       </c>
     </row>
     <row r="17">
@@ -3594,16 +3822,16 @@
         <v>2023</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>87</v>
       </c>
       <c r="C17" t="n">
-        <v>1.96216510131792</v>
+        <v>252.850244976898</v>
       </c>
       <c r="D17" t="n">
-        <v>0.64122003614378</v>
+        <v>242.893271172158</v>
       </c>
       <c r="E17" t="n">
-        <v>3.28311016649206</v>
+        <v>262.807218781637</v>
       </c>
     </row>
     <row r="18">
@@ -3611,16 +3839,16 @@
         <v>2023</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>242</v>
       </c>
       <c r="C18" t="n">
-        <v>1.62570556400086</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.299229285404693</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2.95218184259704</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="19">
@@ -3628,16 +3856,16 @@
         <v>2023</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>243</v>
       </c>
       <c r="C19" t="n">
-        <v>2.08756463354078</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.768716385673865</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>3.40641288140769</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="20">
@@ -3645,16 +3873,16 @@
         <v>2023</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>244</v>
       </c>
       <c r="C20" t="n">
-        <v>8.42929679834453</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>6.65720171037697</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10.2013918863121</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="21">
@@ -3662,16 +3890,16 @@
         <v>2023</v>
       </c>
       <c r="B21" t="s">
-        <v>210</v>
+        <v>108</v>
       </c>
       <c r="C21" t="n">
-        <v>1.80034166240324</v>
+        <v>55.0293984734541</v>
       </c>
       <c r="D21" t="n">
-        <v>0.45867310467423</v>
+        <v>47.5906804724287</v>
       </c>
       <c r="E21" t="n">
-        <v>3.14201022013226</v>
+        <v>62.4681164744796</v>
       </c>
     </row>
     <row r="22">
@@ -3679,16 +3907,16 @@
         <v>2023</v>
       </c>
       <c r="B22" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C22" t="n">
-        <v>6.76973010763197</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>5.50752428160816</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>8.03193593365579</v>
+        <v>-6.98280282097195</v>
       </c>
     </row>
     <row r="23">
@@ -3696,16 +3924,16 @@
         <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C23" t="n">
-        <v>1.6236498016243</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.297129340499091</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>2.9501702627495</v>
+        <v>-8.33821288015687</v>
       </c>
     </row>
     <row r="24">
@@ -3713,16 +3941,16 @@
         <v>2023</v>
       </c>
       <c r="B24" t="s">
-        <v>127</v>
+        <v>185</v>
       </c>
       <c r="C24" t="n">
-        <v>9.5319994965118</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>8.2767802764019</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>10.7872187166217</v>
+        <v>-6.66129907959522</v>
       </c>
     </row>
     <row r="25">
@@ -3730,16 +3958,16 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="C25" t="n">
-        <v>1.60216039885199</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.27348794119249</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2.9308328565115</v>
+        <v>-14.869162099</v>
       </c>
     </row>
     <row r="26">
@@ -3747,16 +3975,16 @@
         <v>2023</v>
       </c>
       <c r="B26" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="C26" t="n">
-        <v>1.94764655346567</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.625969913897608</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>3.26932319303374</v>
+        <v>-10.4733134674375</v>
       </c>
     </row>
     <row r="27">
@@ -3764,16 +3992,16 @@
         <v>2023</v>
       </c>
       <c r="B27" t="s">
-        <v>144</v>
+        <v>165</v>
       </c>
       <c r="C27" t="n">
-        <v>1.63224112301067</v>
+        <v>1.02859634918996</v>
       </c>
       <c r="D27" t="n">
-        <v>0.306390664937909</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2.95809158108343</v>
+        <v>8.35243741015645</v>
       </c>
     </row>
     <row r="28">
@@ -3781,16 +4009,16 @@
         <v>2023</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>225</v>
       </c>
       <c r="C28" t="n">
-        <v>3.04530573217364</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>1.74248129454805</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>4.34813016979923</v>
+        <v>-8.30584413197683</v>
       </c>
     </row>
     <row r="29">
@@ -3798,16 +4026,16 @@
         <v>2023</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>136</v>
       </c>
       <c r="C29" t="n">
-        <v>10.0336516166268</v>
+        <v>4.53838637371809</v>
       </c>
       <c r="D29" t="n">
-        <v>8.79789195501831</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>11.2694112782354</v>
+        <v>11.8376964589392</v>
       </c>
     </row>
     <row r="30">
@@ -3815,16 +4043,16 @@
         <v>2023</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="C30" t="n">
-        <v>59.9450674740963</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>57.1303510294986</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>62.759783918694</v>
+        <v>-8.04929322228474</v>
       </c>
     </row>
     <row r="31">
@@ -3832,16 +4060,16 @@
         <v>2023</v>
       </c>
       <c r="B31" t="s">
-        <v>172</v>
+        <v>246</v>
       </c>
       <c r="C31" t="n">
-        <v>1.6222800796363</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.295732910431818</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>2.94882724884078</v>
+        <v>-11.0237217006249</v>
       </c>
     </row>
     <row r="32">
@@ -3849,16 +4077,16 @@
         <v>2023</v>
       </c>
       <c r="B32" t="s">
-        <v>209</v>
+        <v>153</v>
       </c>
       <c r="C32" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>2.94824957359221</v>
+        <v>-8.41122497200124</v>
       </c>
     </row>
     <row r="33">
@@ -3866,16 +4094,16 @@
         <v>2023</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>151</v>
       </c>
       <c r="C33" t="n">
-        <v>14.3111084816915</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>13.0635406886854</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>15.5586762746975</v>
+        <v>-3.45784689848941</v>
       </c>
     </row>
     <row r="34">
@@ -3883,16 +4111,16 @@
         <v>2023</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>125</v>
       </c>
       <c r="C34" t="n">
-        <v>1.62169129795097</v>
+        <v>9.91029090732786</v>
       </c>
       <c r="D34" t="n">
-        <v>0.295133022309713</v>
+        <v>2.71481195765976</v>
       </c>
       <c r="E34" t="n">
-        <v>2.94824957359221</v>
+        <v>17.1057698569959</v>
       </c>
     </row>
     <row r="35">
@@ -3900,16 +4128,16 @@
         <v>2023</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>97</v>
       </c>
       <c r="C35" t="n">
-        <v>1.8496916107063</v>
+        <v>175.282525416194</v>
       </c>
       <c r="D35" t="n">
-        <v>0.526941167677865</v>
+        <v>165.536196122159</v>
       </c>
       <c r="E35" t="n">
-        <v>3.17244205373473</v>
+        <v>185.028854710227</v>
       </c>
     </row>
     <row r="36">
@@ -3917,16 +4145,16 @@
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C36" t="n">
-        <v>1.9870056216021</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.666813437778429</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>3.30719780542578</v>
+        <v>-8.3076055465776</v>
       </c>
     </row>
     <row r="37">
@@ -3934,16 +4162,16 @@
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="C37" t="n">
-        <v>5.82050507570244</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>4.54929974588166</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>7.09171040552322</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="38">
@@ -3951,16 +4179,16 @@
         <v>2023</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>107</v>
       </c>
       <c r="C38" t="n">
-        <v>1.62169129795097</v>
+        <v>24.1114574201465</v>
       </c>
       <c r="D38" t="n">
-        <v>0.295133022309713</v>
+        <v>16.9362449182911</v>
       </c>
       <c r="E38" t="n">
-        <v>2.94824957359221</v>
+        <v>31.286669922002</v>
       </c>
     </row>
     <row r="39">
@@ -3968,16 +4196,16 @@
         <v>2023</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>228</v>
       </c>
       <c r="C39" t="n">
-        <v>10.8548973699665</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>9.56922081454089</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>12.1405739253921</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="40">
@@ -3985,16 +4213,16 @@
         <v>2023</v>
       </c>
       <c r="B40" t="s">
-        <v>130</v>
+        <v>179</v>
       </c>
       <c r="C40" t="n">
-        <v>6.64427607457633</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>5.36950121706263</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>7.91905093209002</v>
+        <v>-7.42483456295816</v>
       </c>
     </row>
     <row r="41">
@@ -4002,16 +4230,16 @@
         <v>2023</v>
       </c>
       <c r="B41" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C41" t="n">
-        <v>2.05171377954532</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.732368523187469</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>3.37105903590316</v>
+        <v>-7.08949581449801</v>
       </c>
     </row>
     <row r="42">
@@ -4019,16 +4247,16 @@
         <v>2023</v>
       </c>
       <c r="B42" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C42" t="n">
-        <v>2.05172206830411</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.732970077964935</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>3.37047405864327</v>
+        <v>6.55898424316118</v>
       </c>
     </row>
     <row r="43">
@@ -4036,16 +4264,16 @@
         <v>2023</v>
       </c>
       <c r="B43" t="s">
-        <v>122</v>
+        <v>34</v>
       </c>
       <c r="C43" t="n">
-        <v>3.60082957926462</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.89886140303884</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>5.3027977554904</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="44">
@@ -4053,16 +4281,16 @@
         <v>2023</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C44" t="n">
-        <v>4.6937137349338</v>
+        <v>20.2853795450674</v>
       </c>
       <c r="D44" t="n">
-        <v>3.40990282437803</v>
+        <v>12.8763574952931</v>
       </c>
       <c r="E44" t="n">
-        <v>5.97752464548958</v>
+        <v>27.6944015948417</v>
       </c>
     </row>
     <row r="45">
@@ -4070,16 +4298,16 @@
         <v>2023</v>
       </c>
       <c r="B45" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="C45" t="n">
-        <v>1.62169129795097</v>
+        <v>3.830420189471</v>
       </c>
       <c r="D45" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>2.94824957359221</v>
+        <v>11.2508706862554</v>
       </c>
     </row>
     <row r="46">
@@ -4087,16 +4315,16 @@
         <v>2023</v>
       </c>
       <c r="B46" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C46" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.94824957359221</v>
+        <v>-7.92409864565745</v>
       </c>
     </row>
     <row r="47">
@@ -4104,16 +4332,16 @@
         <v>2023</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C47" t="n">
-        <v>57.621843137567</v>
+        <v>21129.2081340109</v>
       </c>
       <c r="D47" t="n">
-        <v>54.9857139447974</v>
+        <v>20557.3360746147</v>
       </c>
       <c r="E47" t="n">
-        <v>60.2579723303365</v>
+        <v>21701.0801934071</v>
       </c>
     </row>
     <row r="48">
@@ -4121,16 +4349,16 @@
         <v>2023</v>
       </c>
       <c r="B48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C48" t="n">
-        <v>2.3533363891583</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1.03994474532398</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>3.66672803299262</v>
+        <v>-6.97320312307108</v>
       </c>
     </row>
     <row r="49">
@@ -4138,16 +4366,16 @@
         <v>2023</v>
       </c>
       <c r="B49" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
       <c r="C49" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>2.94824957359221</v>
+        <v>-10.5295661795593</v>
       </c>
     </row>
     <row r="50">
@@ -4155,16 +4383,16 @@
         <v>2023</v>
       </c>
       <c r="B50" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="C50" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>2.94824957359221</v>
+        <v>2.62952007400413</v>
       </c>
     </row>
     <row r="51">
@@ -4172,16 +4400,16 @@
         <v>2023</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>203</v>
       </c>
       <c r="C51" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>2.94824957359221</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="52">
@@ -4189,16 +4417,16 @@
         <v>2023</v>
       </c>
       <c r="B52" t="s">
-        <v>123</v>
+        <v>247</v>
       </c>
       <c r="C52" t="n">
-        <v>1.94259228368086</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.597764625514699</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>3.28741994184702</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="53">
@@ -4206,16 +4434,16 @@
         <v>2023</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="C53" t="n">
-        <v>3.45864169827867</v>
+        <v>143.41357152887</v>
       </c>
       <c r="D53" t="n">
-        <v>2.16267293463415</v>
+        <v>131.327371208197</v>
       </c>
       <c r="E53" t="n">
-        <v>4.75461046192319</v>
+        <v>155.499771849545</v>
       </c>
     </row>
     <row r="54">
@@ -4223,16 +4451,16 @@
         <v>2023</v>
       </c>
       <c r="B54" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="C54" t="n">
-        <v>1.98421737075387</v>
+        <v>223.688220419832</v>
       </c>
       <c r="D54" t="n">
-        <v>0.66362572473773</v>
+        <v>214.64543802068</v>
       </c>
       <c r="E54" t="n">
-        <v>3.30480901677001</v>
+        <v>232.731002818984</v>
       </c>
     </row>
     <row r="55">
@@ -4240,16 +4468,16 @@
         <v>2023</v>
       </c>
       <c r="B55" t="s">
-        <v>159</v>
+        <v>219</v>
       </c>
       <c r="C55" t="n">
-        <v>1.63352955774122</v>
+        <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.307171368613543</v>
+        <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>2.9598877468689</v>
+        <v>-7.45618784867693</v>
       </c>
     </row>
     <row r="56">
@@ -4257,16 +4485,16 @@
         <v>2023</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="C56" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E56" t="n">
-        <v>2.94824957359221</v>
+        <v>3.42229670829181</v>
       </c>
     </row>
     <row r="57">
@@ -4274,16 +4502,16 @@
         <v>2023</v>
       </c>
       <c r="B57" t="s">
-        <v>197</v>
+        <v>128</v>
       </c>
       <c r="C57" t="n">
-        <v>1.65757156944763</v>
+        <v>0.854020879754291</v>
       </c>
       <c r="D57" t="n">
-        <v>0.331618645090697</v>
+        <v>0</v>
       </c>
       <c r="E57" t="n">
-        <v>2.98352449380457</v>
+        <v>8.07148737500902</v>
       </c>
     </row>
     <row r="58">
@@ -4291,16 +4519,16 @@
         <v>2023</v>
       </c>
       <c r="B58" t="s">
-        <v>224</v>
+        <v>118</v>
       </c>
       <c r="C58" t="n">
-        <v>1.62373073558759</v>
+        <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.297214583272177</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
-        <v>2.95024688790299</v>
+        <v>4.06477659366122</v>
       </c>
     </row>
     <row r="59">
@@ -4308,16 +4536,16 @@
         <v>2023</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="C59" t="n">
-        <v>5.77189821736725</v>
+        <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>4.49627560469087</v>
+        <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>7.04752083004362</v>
+        <v>-5.74819963651081</v>
       </c>
     </row>
     <row r="60">
@@ -4325,16 +4553,16 @@
         <v>2023</v>
       </c>
       <c r="B60" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="C60" t="n">
-        <v>1.6765664582363</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.350932226875304</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>3.0022006895973</v>
+        <v>-6.60972309768979</v>
       </c>
     </row>
     <row r="61">
@@ -4342,16 +4570,16 @@
         <v>2023</v>
       </c>
       <c r="B61" t="s">
-        <v>125</v>
+        <v>231</v>
       </c>
       <c r="C61" t="n">
-        <v>6.07532829640161</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>4.80282867856816</v>
+        <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>7.34782791423506</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="62">
@@ -4359,16 +4587,16 @@
         <v>2023</v>
       </c>
       <c r="B62" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="C62" t="n">
-        <v>13.8500792043319</v>
+        <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>12.5692253714712</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>15.1309330371926</v>
+        <v>4.24814356538853</v>
       </c>
     </row>
     <row r="63">
@@ -4376,16 +4604,16 @@
         <v>2023</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>191</v>
       </c>
       <c r="C63" t="n">
-        <v>1.63467340077575</v>
+        <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.309110009588833</v>
+        <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>2.96023679196266</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="64">
@@ -4393,16 +4621,16 @@
         <v>2023</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="C64" t="n">
-        <v>40.8616438403451</v>
+        <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>38.6842607846709</v>
+        <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>43.0390268960192</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="65">
@@ -4410,16 +4638,16 @@
         <v>2023</v>
       </c>
       <c r="B65" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="C65" t="n">
-        <v>34.0611446343646</v>
+        <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>20.6609067342705</v>
+        <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>47.4613825344586</v>
+        <v>-10.2538930798816</v>
       </c>
     </row>
     <row r="66">
@@ -4427,16 +4655,16 @@
         <v>2023</v>
       </c>
       <c r="B66" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C66" t="n">
-        <v>3.41685426636312</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>2.11652208867231</v>
+        <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>4.71718644405393</v>
+        <v>-2.72570030328239</v>
       </c>
     </row>
     <row r="67">
@@ -4444,16 +4672,16 @@
         <v>2023</v>
       </c>
       <c r="B67" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="C67" t="n">
-        <v>35.5638474948256</v>
+        <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>33.1128344610751</v>
+        <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>38.014860528576</v>
+        <v>-6.89685921685711</v>
       </c>
     </row>
     <row r="68">
@@ -4461,16 +4689,16 @@
         <v>2023</v>
       </c>
       <c r="B68" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="C68" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>2.94824957359221</v>
+        <v>-8.2634979516888</v>
       </c>
     </row>
     <row r="69">
@@ -4478,16 +4706,16 @@
         <v>2023</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="C69" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>2.94824957359221</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="70">
@@ -4495,16 +4723,16 @@
         <v>2023</v>
       </c>
       <c r="B70" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="C70" t="n">
-        <v>1.69267303699914</v>
+        <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.367910834994351</v>
+        <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>3.01743523900392</v>
+        <v>-8.16981149740135</v>
       </c>
     </row>
     <row r="71">
@@ -4512,16 +4740,16 @@
         <v>2023</v>
       </c>
       <c r="B71" t="s">
-        <v>114</v>
+        <v>239</v>
       </c>
       <c r="C71" t="n">
-        <v>7.24083079166463</v>
+        <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>5.97525647169658</v>
+        <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>8.50640511163269</v>
+        <v>-8.32415360099692</v>
       </c>
     </row>
     <row r="72">
@@ -4529,16 +4757,16 @@
         <v>2023</v>
       </c>
       <c r="B72" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="C72" t="n">
-        <v>4.47947739393582</v>
+        <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>2.87352920934042</v>
+        <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>6.08542557853121</v>
+        <v>0.862744988829329</v>
       </c>
     </row>
     <row r="73">
@@ -4546,16 +4774,16 @@
         <v>2023</v>
       </c>
       <c r="B73" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="C73" t="n">
-        <v>17.5126475952715</v>
+        <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>15.6993089512478</v>
+        <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>19.3259862392953</v>
+        <v>-8.09466343600706</v>
       </c>
     </row>
     <row r="74">
@@ -4563,16 +4791,16 @@
         <v>2023</v>
       </c>
       <c r="B74" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="C74" t="n">
-        <v>6.03744325167802</v>
+        <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>4.75990941734766</v>
+        <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>7.31497708600838</v>
+        <v>-1.38404752190726</v>
       </c>
     </row>
     <row r="75">
@@ -4580,16 +4808,16 @@
         <v>2023</v>
       </c>
       <c r="B75" t="s">
-        <v>167</v>
+        <v>120</v>
       </c>
       <c r="C75" t="n">
-        <v>2.02495204852555</v>
+        <v>17.6615895596507</v>
       </c>
       <c r="D75" t="n">
-        <v>0.705009972354936</v>
+        <v>10.1817401420333</v>
       </c>
       <c r="E75" t="n">
-        <v>3.34489412469617</v>
+        <v>25.1414389772679</v>
       </c>
     </row>
     <row r="76">
@@ -4597,16 +4825,16 @@
         <v>2023</v>
       </c>
       <c r="B76" t="s">
-        <v>179</v>
+        <v>49</v>
       </c>
       <c r="C76" t="n">
-        <v>2.41311556037305</v>
+        <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>1.10091146106429</v>
+        <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>3.72531965968181</v>
+        <v>-8.48010397972035</v>
       </c>
     </row>
     <row r="77">
@@ -4614,16 +4842,16 @@
         <v>2023</v>
       </c>
       <c r="B77" t="s">
-        <v>225</v>
+        <v>106</v>
       </c>
       <c r="C77" t="n">
-        <v>1.62373073558759</v>
+        <v>118.137320471808</v>
       </c>
       <c r="D77" t="n">
-        <v>0.297214583272177</v>
+        <v>109.003326351215</v>
       </c>
       <c r="E77" t="n">
-        <v>2.95024688790299</v>
+        <v>127.2713145924</v>
       </c>
     </row>
     <row r="78">
@@ -4631,16 +4859,16 @@
         <v>2023</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="C78" t="n">
-        <v>2.2721385710152</v>
+        <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.956163843803735</v>
+        <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>3.58811329822667</v>
+        <v>-79.7392252529932</v>
       </c>
     </row>
     <row r="79">
@@ -4648,16 +4876,16 @@
         <v>2023</v>
       </c>
       <c r="B79" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="C79" t="n">
-        <v>41.2812132674641</v>
+        <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>39.1320146544305</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>43.4304118804978</v>
+        <v>-1.31193578122378</v>
       </c>
     </row>
     <row r="80">
@@ -4665,16 +4893,16 @@
         <v>2023</v>
       </c>
       <c r="B80" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="C80" t="n">
-        <v>3.21600663631115</v>
+        <v>43.8659926107809</v>
       </c>
       <c r="D80" t="n">
-        <v>1.91453149739651</v>
+        <v>29.0866790407216</v>
       </c>
       <c r="E80" t="n">
-        <v>4.51748177522578</v>
+        <v>58.6453061808402</v>
       </c>
     </row>
     <row r="81">
@@ -4682,16 +4910,16 @@
         <v>2023</v>
       </c>
       <c r="B81" t="s">
-        <v>134</v>
+        <v>22</v>
       </c>
       <c r="C81" t="n">
-        <v>4.7110503962713</v>
+        <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>3.43009608011992</v>
+        <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>5.99200471242269</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="82">
@@ -4699,16 +4927,16 @@
         <v>2023</v>
       </c>
       <c r="B82" t="s">
-        <v>205</v>
+        <v>16</v>
       </c>
       <c r="C82" t="n">
-        <v>1.64529825734005</v>
+        <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.31916877707647</v>
+        <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>2.97142773760364</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="83">
@@ -4716,16 +4944,16 @@
         <v>2023</v>
       </c>
       <c r="B83" t="s">
-        <v>165</v>
+        <v>197</v>
       </c>
       <c r="C83" t="n">
-        <v>3.967509443746</v>
+        <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>2.59621498314962</v>
+        <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>5.33880390434238</v>
+        <v>-8.19268199968239</v>
       </c>
     </row>
     <row r="84">
@@ -4733,16 +4961,16 @@
         <v>2023</v>
       </c>
       <c r="B84" t="s">
-        <v>204</v>
+        <v>122</v>
       </c>
       <c r="C84" t="n">
-        <v>1.62174118094393</v>
+        <v>0.419804087416249</v>
       </c>
       <c r="D84" t="n">
-        <v>0.295187356185775</v>
+        <v>0</v>
       </c>
       <c r="E84" t="n">
-        <v>2.94829500570209</v>
+        <v>7.75700020407718</v>
       </c>
     </row>
     <row r="85">
@@ -4750,16 +4978,16 @@
         <v>2023</v>
       </c>
       <c r="B85" t="s">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="C85" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>2.94824957359221</v>
+        <v>-26.2079798890794</v>
       </c>
     </row>
     <row r="86">
@@ -4767,16 +4995,16 @@
         <v>2023</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C86" t="n">
-        <v>2.29383157499633</v>
+        <v>23.5075328258495</v>
       </c>
       <c r="D86" t="n">
-        <v>0.978763230851239</v>
+        <v>12.7366756158391</v>
       </c>
       <c r="E86" t="n">
-        <v>3.60889991914142</v>
+        <v>34.2783900358599</v>
       </c>
     </row>
     <row r="87">
@@ -4784,16 +5012,16 @@
         <v>2023</v>
       </c>
       <c r="B87" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="C87" t="n">
-        <v>12.0148279775183</v>
+        <v>1.48035450208617</v>
       </c>
       <c r="D87" t="n">
-        <v>10.779484177398</v>
+        <v>0</v>
       </c>
       <c r="E87" t="n">
-        <v>13.2501717776385</v>
+        <v>8.90600384680089</v>
       </c>
     </row>
     <row r="88">
@@ -4801,16 +5029,16 @@
         <v>2023</v>
       </c>
       <c r="B88" t="s">
-        <v>156</v>
+        <v>182</v>
       </c>
       <c r="C88" t="n">
-        <v>3.58564091781679</v>
+        <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>2.28970661855236</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>4.88157521708124</v>
+        <v>-6.73810335830888</v>
       </c>
     </row>
     <row r="89">
@@ -4818,16 +5046,16 @@
         <v>2023</v>
       </c>
       <c r="B89" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="C89" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>2.94824957359221</v>
+        <v>-5.88922013985471</v>
       </c>
     </row>
     <row r="90">
@@ -4835,16 +5063,16 @@
         <v>2023</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="C90" t="n">
-        <v>5.5914770080012</v>
+        <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>4.31425840322752</v>
+        <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>6.86869561277487</v>
+        <v>-8.32415360099692</v>
       </c>
     </row>
     <row r="91">
@@ -4852,16 +5080,16 @@
         <v>2023</v>
       </c>
       <c r="B91" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="C91" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>2.94824957359221</v>
+        <v>-5.79915195341529</v>
       </c>
     </row>
     <row r="92">
@@ -4869,16 +5097,16 @@
         <v>2023</v>
       </c>
       <c r="B92" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="C92" t="n">
-        <v>1.89974717365707</v>
+        <v>89.8078076474742</v>
       </c>
       <c r="D92" t="n">
-        <v>0.57779505835447</v>
+        <v>78.3084468573142</v>
       </c>
       <c r="E92" t="n">
-        <v>3.22169928895967</v>
+        <v>101.307168437634</v>
       </c>
     </row>
     <row r="93">
@@ -4886,16 +5114,16 @@
         <v>2023</v>
       </c>
       <c r="B93" t="s">
-        <v>113</v>
+        <v>172</v>
       </c>
       <c r="C93" t="n">
-        <v>12.751905869132</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>11.4661683590819</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>14.0376433791823</v>
+        <v>-2.41650159689667</v>
       </c>
     </row>
     <row r="94">
@@ -4903,16 +5131,16 @@
         <v>2023</v>
       </c>
       <c r="B94" t="s">
-        <v>109</v>
+        <v>147</v>
       </c>
       <c r="C94" t="n">
-        <v>18.4678861435665</v>
+        <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>17.0894699077574</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>19.8463023793755</v>
+        <v>-0.0354681144590144</v>
       </c>
     </row>
     <row r="95">
@@ -4920,16 +5148,16 @@
         <v>2023</v>
       </c>
       <c r="B95" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="C95" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>2.94824957359221</v>
+        <v>-8.47740824430666</v>
       </c>
     </row>
     <row r="96">
@@ -4937,16 +5165,16 @@
         <v>2023</v>
       </c>
       <c r="B96" t="s">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="C96" t="n">
-        <v>9.33320671756796</v>
+        <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>8.09685540115336</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>10.5695580339826</v>
+        <v>-14.4922053079489</v>
       </c>
     </row>
     <row r="97">
@@ -4954,16 +5182,16 @@
         <v>2023</v>
       </c>
       <c r="B97" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="C97" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>2.94824957359221</v>
+        <v>-8.31028772375506</v>
       </c>
     </row>
     <row r="98">
@@ -4971,16 +5199,16 @@
         <v>2023</v>
       </c>
       <c r="B98" t="s">
-        <v>116</v>
+        <v>53</v>
       </c>
       <c r="C98" t="n">
-        <v>10.6409177847181</v>
+        <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>9.39863484198621</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>11.8832007274501</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="99">
@@ -4988,16 +5216,16 @@
         <v>2023</v>
       </c>
       <c r="B99" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C99" t="n">
-        <v>2.36142269345914</v>
+        <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>1.0465882676858</v>
+        <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>3.67625711923248</v>
+        <v>-7.06050575321986</v>
       </c>
     </row>
     <row r="100">
@@ -5005,16 +5233,16 @@
         <v>2023</v>
       </c>
       <c r="B100" t="s">
-        <v>201</v>
+        <v>140</v>
       </c>
       <c r="C100" t="n">
-        <v>1.67348753457366</v>
+        <v>14.8137433293217</v>
       </c>
       <c r="D100" t="n">
-        <v>0.348936813325007</v>
+        <v>7.62323759574462</v>
       </c>
       <c r="E100" t="n">
-        <v>2.99803825582232</v>
+        <v>22.0042490628988</v>
       </c>
     </row>
     <row r="101">
@@ -5022,16 +5250,16 @@
         <v>2023</v>
       </c>
       <c r="B101" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="C101" t="n">
-        <v>1.62525519418572</v>
+        <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.298757191492251</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>2.95175319687918</v>
+        <v>-1.51700422872233</v>
       </c>
     </row>
     <row r="102">
@@ -5039,16 +5267,16 @@
         <v>2023</v>
       </c>
       <c r="B102" t="s">
-        <v>135</v>
+        <v>240</v>
       </c>
       <c r="C102" t="n">
-        <v>4.67541556716032</v>
+        <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>3.39872950928413</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>5.9521016250365</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="103">
@@ -5056,16 +5284,16 @@
         <v>2023</v>
       </c>
       <c r="B103" t="s">
-        <v>183</v>
+        <v>115</v>
       </c>
       <c r="C103" t="n">
-        <v>1.62258174282292</v>
+        <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.296038529463522</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
-        <v>2.94912495618232</v>
+        <v>6.69651792730968</v>
       </c>
     </row>
     <row r="104">
@@ -5073,16 +5301,16 @@
         <v>2023</v>
       </c>
       <c r="B104" t="s">
-        <v>129</v>
+        <v>230</v>
       </c>
       <c r="C104" t="n">
-        <v>10.5591464522868</v>
+        <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>9.27537892202979</v>
+        <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>11.8429139825439</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="105">
@@ -5090,16 +5318,16 @@
         <v>2023</v>
       </c>
       <c r="B105" t="s">
-        <v>120</v>
+        <v>167</v>
       </c>
       <c r="C105" t="n">
-        <v>10.5991713725246</v>
+        <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>9.36651630080505</v>
+        <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>11.8318264442442</v>
+        <v>-7.22605829295712</v>
       </c>
     </row>
     <row r="106">
@@ -5107,16 +5335,16 @@
         <v>2023</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C106" t="n">
-        <v>27.6366202528353</v>
+        <v>24.3836326195079</v>
       </c>
       <c r="D106" t="n">
-        <v>26.1341994012191</v>
+        <v>17.0148758412115</v>
       </c>
       <c r="E106" t="n">
-        <v>29.1390411044514</v>
+        <v>31.7523893978042</v>
       </c>
     </row>
     <row r="107">
@@ -5124,16 +5352,16 @@
         <v>2023</v>
       </c>
       <c r="B107" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="C107" t="n">
-        <v>3.110855618758</v>
+        <v>42.7713873871357</v>
       </c>
       <c r="D107" t="n">
-        <v>1.80650805621704</v>
+        <v>35.233269221639</v>
       </c>
       <c r="E107" t="n">
-        <v>4.41520318129897</v>
+        <v>50.3095055526323</v>
       </c>
     </row>
     <row r="108">
@@ -5141,16 +5369,16 @@
         <v>2023</v>
       </c>
       <c r="B108" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C108" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>2.94824957359221</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="109">
@@ -5158,16 +5386,16 @@
         <v>2023</v>
       </c>
       <c r="B109" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
       <c r="C109" t="n">
-        <v>43.9230980039817</v>
+        <v>6.82720972858786</v>
       </c>
       <c r="D109" t="n">
-        <v>41.471461070229</v>
+        <v>0</v>
       </c>
       <c r="E109" t="n">
-        <v>46.3747349377344</v>
+        <v>14.0212544029455</v>
       </c>
     </row>
     <row r="110">
@@ -5175,16 +5403,16 @@
         <v>2023</v>
       </c>
       <c r="B110" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C110" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>2.94824957359221</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="111">
@@ -5192,16 +5420,16 @@
         <v>2023</v>
       </c>
       <c r="B111" t="s">
-        <v>233</v>
+        <v>121</v>
       </c>
       <c r="C111" t="n">
-        <v>1.62169129795097</v>
+        <v>12.6787321690439</v>
       </c>
       <c r="D111" t="n">
-        <v>0.295133022309713</v>
+        <v>5.44750450429974</v>
       </c>
       <c r="E111" t="n">
-        <v>2.94824957359221</v>
+        <v>19.9099598337882</v>
       </c>
     </row>
     <row r="112">
@@ -5209,16 +5437,16 @@
         <v>2023</v>
       </c>
       <c r="B112" t="s">
-        <v>94</v>
+        <v>189</v>
       </c>
       <c r="C112" t="n">
-        <v>44.6865371463544</v>
+        <v>0</v>
       </c>
       <c r="D112" t="n">
-        <v>42.4611398697917</v>
+        <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>46.9119344229171</v>
+        <v>-5.4114600707594</v>
       </c>
     </row>
     <row r="113">
@@ -5226,16 +5454,16 @@
         <v>2023</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="C113" t="n">
-        <v>1.69584354781504</v>
+        <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0.370675308545053</v>
+        <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>3.02101178708504</v>
+        <v>-8.97746091831663</v>
       </c>
     </row>
     <row r="114">
@@ -5243,16 +5471,16 @@
         <v>2023</v>
       </c>
       <c r="B114" t="s">
-        <v>96</v>
+        <v>232</v>
       </c>
       <c r="C114" t="n">
-        <v>35.9054472072157</v>
+        <v>0</v>
       </c>
       <c r="D114" t="n">
-        <v>34.0896136813228</v>
+        <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>37.7212807331087</v>
+        <v>-8.29574113958822</v>
       </c>
     </row>
     <row r="115">
@@ -5260,16 +5488,16 @@
         <v>2023</v>
       </c>
       <c r="B115" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="C115" t="n">
-        <v>19.4214330205927</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>18.019830526028</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>20.8230355151573</v>
+        <v>-0.201220093640234</v>
       </c>
     </row>
     <row r="116">
@@ -5277,16 +5505,16 @@
         <v>2023</v>
       </c>
       <c r="B116" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="C116" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>2.94824957359221</v>
+        <v>-8.30615890849566</v>
       </c>
     </row>
     <row r="117">
@@ -5294,16 +5522,16 @@
         <v>2023</v>
       </c>
       <c r="B117" t="s">
-        <v>200</v>
+        <v>132</v>
       </c>
       <c r="C117" t="n">
-        <v>1.7086271455038</v>
+        <v>19.1660213946282</v>
       </c>
       <c r="D117" t="n">
-        <v>0.383284803624292</v>
+        <v>11.7546753612891</v>
       </c>
       <c r="E117" t="n">
-        <v>3.03396948738331</v>
+        <v>26.5773674279673</v>
       </c>
     </row>
     <row r="118">
@@ -5311,16 +5539,16 @@
         <v>2023</v>
       </c>
       <c r="B118" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="C118" t="n">
-        <v>1.64689185049318</v>
+        <v>9.90922621405307</v>
       </c>
       <c r="D118" t="n">
-        <v>0.321964622436629</v>
+        <v>2.7293893050797</v>
       </c>
       <c r="E118" t="n">
-        <v>2.97181907854974</v>
+        <v>17.0890631230264</v>
       </c>
     </row>
     <row r="119">
@@ -5328,16 +5556,16 @@
         <v>2023</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>91</v>
       </c>
       <c r="C119" t="n">
-        <v>1.62169129795097</v>
+        <v>65.5154248079672</v>
       </c>
       <c r="D119" t="n">
-        <v>0.295133022309713</v>
+        <v>57.8928676516935</v>
       </c>
       <c r="E119" t="n">
-        <v>2.94824957359221</v>
+        <v>73.1379819642409</v>
       </c>
     </row>
     <row r="120">
@@ -5345,16 +5573,16 @@
         <v>2023</v>
       </c>
       <c r="B120" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C120" t="n">
-        <v>2.93939369290351</v>
+        <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>1.60271322897686</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>4.27607415683016</v>
+        <v>-2.42832866089927</v>
       </c>
     </row>
     <row r="121">
@@ -5362,16 +5590,16 @@
         <v>2023</v>
       </c>
       <c r="B121" t="s">
-        <v>93</v>
+        <v>250</v>
       </c>
       <c r="C121" t="n">
-        <v>36.6295396558129</v>
+        <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>32.0665473691952</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>41.1925319424305</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="122">
@@ -5379,16 +5607,16 @@
         <v>2023</v>
       </c>
       <c r="B122" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C122" t="n">
-        <v>1.72702960757744</v>
+        <v>146.439324125521</v>
       </c>
       <c r="D122" t="n">
-        <v>0.399047927115941</v>
+        <v>138.390845087694</v>
       </c>
       <c r="E122" t="n">
-        <v>3.05501128803892</v>
+        <v>154.487803163348</v>
       </c>
     </row>
     <row r="123">
@@ -5396,16 +5624,16 @@
         <v>2023</v>
       </c>
       <c r="B123" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C123" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>2.94824957359221</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="124">
@@ -5413,16 +5641,16 @@
         <v>2023</v>
       </c>
       <c r="B124" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="C124" t="n">
-        <v>3.25471267361483</v>
+        <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>1.95371921756823</v>
+        <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>4.55570612966142</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="125">
@@ -5430,16 +5658,16 @@
         <v>2023</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="C125" t="n">
-        <v>1.64339792038613</v>
+        <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>0.318318526673973</v>
+        <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>2.96847731409827</v>
+        <v>-8.58991780221718</v>
       </c>
     </row>
     <row r="126">
@@ -5447,16 +5675,16 @@
         <v>2023</v>
       </c>
       <c r="B126" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C126" t="n">
-        <v>47.1218114197158</v>
+        <v>133.200019180332</v>
       </c>
       <c r="D126" t="n">
-        <v>44.9077740320922</v>
+        <v>125.166367249885</v>
       </c>
       <c r="E126" t="n">
-        <v>49.3358488073395</v>
+        <v>141.233671110777</v>
       </c>
     </row>
     <row r="127">
@@ -5464,16 +5692,16 @@
         <v>2023</v>
       </c>
       <c r="B127" t="s">
-        <v>146</v>
+        <v>215</v>
       </c>
       <c r="C127" t="n">
-        <v>4.10692531961409</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>2.81789927687479</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>5.39595136235339</v>
+        <v>-8.05371512915964</v>
       </c>
     </row>
     <row r="128">
@@ -5481,16 +5709,16 @@
         <v>2023</v>
       </c>
       <c r="B128" t="s">
-        <v>236</v>
+        <v>100</v>
       </c>
       <c r="C128" t="n">
-        <v>1.62169129795097</v>
+        <v>77.4518895093913</v>
       </c>
       <c r="D128" t="n">
-        <v>0.295133022309713</v>
+        <v>67.8139388172569</v>
       </c>
       <c r="E128" t="n">
-        <v>2.94824957359221</v>
+        <v>87.0898402015257</v>
       </c>
     </row>
     <row r="129">
@@ -5498,16 +5726,16 @@
         <v>2023</v>
       </c>
       <c r="B129" t="s">
-        <v>223</v>
+        <v>116</v>
       </c>
       <c r="C129" t="n">
-        <v>1.62169129795097</v>
+        <v>48.20437933881</v>
       </c>
       <c r="D129" t="n">
-        <v>0.295133022309713</v>
+        <v>40.7395649069449</v>
       </c>
       <c r="E129" t="n">
-        <v>2.94824957359221</v>
+        <v>55.669193770675</v>
       </c>
     </row>
     <row r="130">
@@ -5515,16 +5743,16 @@
         <v>2023</v>
       </c>
       <c r="B130" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="C130" t="n">
-        <v>1.66384297333215</v>
+        <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>0.339053887736889</v>
+        <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>2.98863205892741</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="131">
@@ -5532,16 +5760,16 @@
         <v>2023</v>
       </c>
       <c r="B131" t="s">
-        <v>107</v>
+        <v>217</v>
       </c>
       <c r="C131" t="n">
-        <v>28.2995582424191</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>26.6361824376754</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>29.9629340471627</v>
+        <v>-8.76572328276101</v>
       </c>
     </row>
     <row r="132">
@@ -5549,16 +5777,16 @@
         <v>2023</v>
       </c>
       <c r="B132" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
       <c r="C132" t="n">
-        <v>24.2281913224715</v>
+        <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>22.6993120194666</v>
+        <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>25.7570706254763</v>
+        <v>-8.63866708314807</v>
       </c>
     </row>
     <row r="133">
@@ -5566,16 +5794,16 @@
         <v>2023</v>
       </c>
       <c r="B133" t="s">
-        <v>108</v>
+        <v>252</v>
       </c>
       <c r="C133" t="n">
-        <v>16.6962778858507</v>
+        <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>15.3184854102752</v>
+        <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>18.0740703614262</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="134">
@@ -5583,16 +5811,16 @@
         <v>2023</v>
       </c>
       <c r="B134" t="s">
-        <v>86</v>
+        <v>187</v>
       </c>
       <c r="C134" t="n">
-        <v>55.8128085866651</v>
+        <v>0</v>
       </c>
       <c r="D134" t="n">
-        <v>52.9912617925385</v>
+        <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>58.6343553807918</v>
+        <v>-13.4568990169994</v>
       </c>
     </row>
     <row r="135">
@@ -5600,16 +5828,16 @@
         <v>2023</v>
       </c>
       <c r="B135" t="s">
-        <v>198</v>
+        <v>99</v>
       </c>
       <c r="C135" t="n">
-        <v>1.82220932273062</v>
+        <v>39.1931240440688</v>
       </c>
       <c r="D135" t="n">
-        <v>0.498992421995726</v>
+        <v>11.609758154555</v>
       </c>
       <c r="E135" t="n">
-        <v>3.14542622346551</v>
+        <v>66.7764899335827</v>
       </c>
     </row>
     <row r="136">
@@ -5617,16 +5845,16 @@
         <v>2023</v>
       </c>
       <c r="B136" t="s">
-        <v>195</v>
+        <v>63</v>
       </c>
       <c r="C136" t="n">
-        <v>1.88944194469972</v>
+        <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>0.567387976948404</v>
+        <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>3.21149591245104</v>
+        <v>-9.63300790076417</v>
       </c>
     </row>
     <row r="137">
@@ -5634,16 +5862,16 @@
         <v>2023</v>
       </c>
       <c r="B137" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="C137" t="n">
-        <v>1.63467340077575</v>
+        <v>0</v>
       </c>
       <c r="D137" t="n">
-        <v>0.309110009588833</v>
+        <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>2.96023679196266</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="138">
@@ -5651,16 +5879,16 @@
         <v>2023</v>
       </c>
       <c r="B138" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="C138" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D138" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>2.94824957359221</v>
+        <v>-5.69456226130862</v>
       </c>
     </row>
     <row r="139">
@@ -5668,16 +5896,16 @@
         <v>2023</v>
       </c>
       <c r="B139" t="s">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="C139" t="n">
-        <v>1.62174118094393</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>0.295187356185775</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>2.94829500570209</v>
+        <v>-4.77528546374877</v>
       </c>
     </row>
     <row r="140">
@@ -5685,16 +5913,16 @@
         <v>2023</v>
       </c>
       <c r="B140" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="C140" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>2.94824957359221</v>
+        <v>-7.15073091742705</v>
       </c>
     </row>
     <row r="141">
@@ -5702,16 +5930,16 @@
         <v>2023</v>
       </c>
       <c r="B141" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="C141" t="n">
-        <v>137.643883804715</v>
+        <v>0</v>
       </c>
       <c r="D141" t="n">
-        <v>130.965188821147</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>144.322578788282</v>
+        <v>-8.59585164940863</v>
       </c>
     </row>
     <row r="142">
@@ -5719,16 +5947,16 @@
         <v>2023</v>
       </c>
       <c r="B142" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="C142" t="n">
-        <v>12.8137954520651</v>
+        <v>0</v>
       </c>
       <c r="D142" t="n">
-        <v>11.5584217081932</v>
+        <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>14.0691691959372</v>
+        <v>-5.83949962338829</v>
       </c>
     </row>
     <row r="143">
@@ -5736,16 +5964,16 @@
         <v>2023</v>
       </c>
       <c r="B143" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="C143" t="n">
-        <v>2.21283450534402</v>
+        <v>0</v>
       </c>
       <c r="D143" t="n">
-        <v>0.895833528692606</v>
+        <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>3.52983548199543</v>
+        <v>-8.5935120902476</v>
       </c>
     </row>
     <row r="144">
@@ -5753,16 +5981,16 @@
         <v>2023</v>
       </c>
       <c r="B144" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="C144" t="n">
-        <v>3.4008369066236</v>
+        <v>129.897744446651</v>
       </c>
       <c r="D144" t="n">
-        <v>2.10493823079512</v>
+        <v>121.11390524602</v>
       </c>
       <c r="E144" t="n">
-        <v>4.69673558245207</v>
+        <v>138.681583647283</v>
       </c>
     </row>
     <row r="145">
@@ -5770,16 +5998,16 @@
         <v>2023</v>
       </c>
       <c r="B145" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="C145" t="n">
-        <v>1.77197992631305</v>
+        <v>0</v>
       </c>
       <c r="D145" t="n">
-        <v>0.447989168991654</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>3.09597068363444</v>
+        <v>0.207900891552715</v>
       </c>
     </row>
     <row r="146">
@@ -5787,16 +6015,16 @@
         <v>2023</v>
       </c>
       <c r="B146" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="C146" t="n">
-        <v>1.64042063108628</v>
+        <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>0.314412658273544</v>
+        <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>2.96642860389903</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="147">
@@ -5804,16 +6032,16 @@
         <v>2023</v>
       </c>
       <c r="B147" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="C147" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>2.94824957359221</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="148">
@@ -5821,16 +6049,16 @@
         <v>2023</v>
       </c>
       <c r="B148" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="C148" t="n">
-        <v>1.65050092914503</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>0.324428969454014</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>2.97657288883604</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="149">
@@ -5838,16 +6066,16 @@
         <v>2023</v>
       </c>
       <c r="B149" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="C149" t="n">
-        <v>1.84010052395482</v>
+        <v>0</v>
       </c>
       <c r="D149" t="n">
-        <v>0.516353956655099</v>
+        <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>3.16384709125454</v>
+        <v>-8.70503839766878</v>
       </c>
     </row>
     <row r="150">
@@ -5855,16 +6083,16 @@
         <v>2023</v>
       </c>
       <c r="B150" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="C150" t="n">
-        <v>2.00645229981982</v>
+        <v>73.9474684025235</v>
       </c>
       <c r="D150" t="n">
-        <v>0.67829811742288</v>
+        <v>65.7574762866402</v>
       </c>
       <c r="E150" t="n">
-        <v>3.33460648221676</v>
+        <v>82.1374605184069</v>
       </c>
     </row>
     <row r="151">
@@ -5872,16 +6100,16 @@
         <v>2023</v>
       </c>
       <c r="B151" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C151" t="n">
-        <v>4.53874506203622</v>
+        <v>67.112873441172</v>
       </c>
       <c r="D151" t="n">
-        <v>3.25509586715666</v>
+        <v>59.7077594060982</v>
       </c>
       <c r="E151" t="n">
-        <v>5.82239425691578</v>
+        <v>74.5179874762458</v>
       </c>
     </row>
     <row r="152">
@@ -5889,16 +6117,16 @@
         <v>2023</v>
       </c>
       <c r="B152" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="C152" t="n">
-        <v>51.1982449272178</v>
+        <v>42.9785286032089</v>
       </c>
       <c r="D152" t="n">
-        <v>48.4851966516364</v>
+        <v>35.5482186056744</v>
       </c>
       <c r="E152" t="n">
-        <v>53.9112932027992</v>
+        <v>50.4088386007436</v>
       </c>
     </row>
     <row r="153">
@@ -5906,16 +6134,16 @@
         <v>2023</v>
       </c>
       <c r="B153" t="s">
-        <v>217</v>
+        <v>90</v>
       </c>
       <c r="C153" t="n">
-        <v>1.62169129795097</v>
+        <v>178.889647437046</v>
       </c>
       <c r="D153" t="n">
-        <v>0.295133022309713</v>
+        <v>170.548496292677</v>
       </c>
       <c r="E153" t="n">
-        <v>2.94824957359221</v>
+        <v>187.230798581415</v>
       </c>
     </row>
     <row r="154">
@@ -5923,16 +6151,16 @@
         <v>2023</v>
       </c>
       <c r="B154" t="s">
-        <v>124</v>
+        <v>220</v>
       </c>
       <c r="C154" t="n">
-        <v>3.01932532061458</v>
+        <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>1.71587060094415</v>
+        <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>4.32278004028502</v>
+        <v>-7.52823114157726</v>
       </c>
     </row>
     <row r="155">
@@ -5940,16 +6168,16 @@
         <v>2023</v>
       </c>
       <c r="B155" t="s">
-        <v>106</v>
+        <v>216</v>
       </c>
       <c r="C155" t="n">
-        <v>14.5902231316364</v>
+        <v>0</v>
       </c>
       <c r="D155" t="n">
-        <v>13.3101321258371</v>
+        <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>15.8703141374357</v>
+        <v>-7.28095288058677</v>
       </c>
     </row>
     <row r="156">
@@ -5957,16 +6185,16 @@
         <v>2023</v>
       </c>
       <c r="B156" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
       <c r="C156" t="n">
-        <v>175.201262471473</v>
+        <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>162.306232901455</v>
+        <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>188.096292041492</v>
+        <v>-8.48010397972035</v>
       </c>
     </row>
     <row r="157">
@@ -5974,16 +6202,16 @@
         <v>2023</v>
       </c>
       <c r="B157" t="s">
-        <v>190</v>
+        <v>48</v>
       </c>
       <c r="C157" t="n">
-        <v>2.74333011866157</v>
+        <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>1.37565622947955</v>
+        <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>4.11100400784359</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="158">
@@ -5991,16 +6219,16 @@
         <v>2023</v>
       </c>
       <c r="B158" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="C158" t="n">
-        <v>31.9272225151537</v>
+        <v>0</v>
       </c>
       <c r="D158" t="n">
-        <v>29.4062805833473</v>
+        <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>34.4481644469599</v>
+        <v>-8.31028772375506</v>
       </c>
     </row>
     <row r="159">
@@ -6008,16 +6236,16 @@
         <v>2023</v>
       </c>
       <c r="B159" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="C159" t="n">
-        <v>1.62373073558759</v>
+        <v>0</v>
       </c>
       <c r="D159" t="n">
-        <v>0.297214583272177</v>
+        <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>2.95024688790299</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="160">
@@ -6025,16 +6253,16 @@
         <v>2023</v>
       </c>
       <c r="B160" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C160" t="n">
-        <v>9.01258843520684</v>
+        <v>406.971420334325</v>
       </c>
       <c r="D160" t="n">
-        <v>7.76029418773331</v>
+        <v>382.732177736657</v>
       </c>
       <c r="E160" t="n">
-        <v>10.2648826826803</v>
+        <v>431.210662931993</v>
       </c>
     </row>
     <row r="161">
@@ -6042,16 +6270,16 @@
         <v>2023</v>
       </c>
       <c r="B161" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C161" t="n">
-        <v>3.41123022310767</v>
+        <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>2.11352952506704</v>
+        <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>4.7089309211483</v>
+        <v>-6.41102040741085</v>
       </c>
     </row>
     <row r="162">
@@ -6059,16 +6287,16 @@
         <v>2023</v>
       </c>
       <c r="B162" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="C162" t="n">
-        <v>1.96648081217133</v>
+        <v>21.2454083685754</v>
       </c>
       <c r="D162" t="n">
-        <v>0.645086512450321</v>
+        <v>14.0019256187918</v>
       </c>
       <c r="E162" t="n">
-        <v>3.28787511189235</v>
+        <v>28.488891118359</v>
       </c>
     </row>
     <row r="163">
@@ -6076,16 +6304,16 @@
         <v>2023</v>
       </c>
       <c r="B163" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C163" t="n">
-        <v>1.62169129795097</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>0.295133022309713</v>
+        <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>2.94824957359221</v>
+        <v>-6.00583433806426</v>
       </c>
     </row>
     <row r="164">
@@ -6093,16 +6321,16 @@
         <v>2023</v>
       </c>
       <c r="B164" t="s">
-        <v>188</v>
+        <v>74</v>
       </c>
       <c r="C164" t="n">
-        <v>1.66329415044186</v>
+        <v>0</v>
       </c>
       <c r="D164" t="n">
-        <v>0.337405051027457</v>
+        <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>2.98918324985626</v>
+        <v>-3.07663730182296</v>
       </c>
     </row>
     <row r="165">
@@ -6110,16 +6338,16 @@
         <v>2023</v>
       </c>
       <c r="B165" t="s">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="C165" t="n">
-        <v>78.4640994923385</v>
+        <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>74.4903614935721</v>
+        <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>82.437837491105</v>
+        <v>-7.73635137854122</v>
       </c>
     </row>
     <row r="166">
@@ -6127,16 +6355,16 @@
         <v>2023</v>
       </c>
       <c r="B166" t="s">
-        <v>140</v>
+        <v>256</v>
       </c>
       <c r="C166" t="n">
-        <v>3.56030132386218</v>
+        <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>2.2658375081052</v>
+        <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>4.85476513961916</v>
+        <v>-8.45914554059683</v>
       </c>
     </row>
     <row r="167">
@@ -6144,16 +6372,16 @@
         <v>2023</v>
       </c>
       <c r="B167" t="s">
-        <v>160</v>
+        <v>235</v>
       </c>
       <c r="C167" t="n">
-        <v>3.31908630270257</v>
+        <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>1.96868295461917</v>
+        <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>4.66948965078597</v>
+        <v>-8.30962874629866</v>
       </c>
     </row>
     <row r="168">
@@ -6161,16 +6389,373 @@
         <v>2023</v>
       </c>
       <c r="B168" t="s">
-        <v>158</v>
+        <v>222</v>
       </c>
       <c r="C168" t="n">
-        <v>2.36182551050292</v>
+        <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>1.0491224033468</v>
+        <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>3.67452861765905</v>
+        <v>-8.19736432406102</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B169" t="s">
+        <v>207</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-7.53683661144898</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B170" t="s">
+        <v>257</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>-11.9374112469981</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B171" t="s">
+        <v>117</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>1.97908364595567</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B172" t="s">
+        <v>41</v>
+      </c>
+      <c r="C172" t="n">
+        <v>99.8856949166842</v>
+      </c>
+      <c r="D172" t="n">
+        <v>84.5679083578028</v>
+      </c>
+      <c r="E172" t="n">
+        <v>115.203481475566</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B173" t="s">
+        <v>234</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>-8.30962874629866</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B174" t="s">
+        <v>133</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>-3.40886450560713</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B175" t="s">
+        <v>112</v>
+      </c>
+      <c r="C175" t="n">
+        <v>27.9559863033485</v>
+      </c>
+      <c r="D175" t="n">
+        <v>20.6602521522693</v>
+      </c>
+      <c r="E175" t="n">
+        <v>35.2517204544277</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B176" t="s">
+        <v>88</v>
+      </c>
+      <c r="C176" t="n">
+        <v>435.870600342453</v>
+      </c>
+      <c r="D176" t="n">
+        <v>364.433885794632</v>
+      </c>
+      <c r="E176" t="n">
+        <v>507.307314890272</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B177" t="s">
+        <v>258</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>-17.1168471071899</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B178" t="s">
+        <v>104</v>
+      </c>
+      <c r="C178" t="n">
+        <v>81.0882368703008</v>
+      </c>
+      <c r="D178" t="n">
+        <v>67.1969108211387</v>
+      </c>
+      <c r="E178" t="n">
+        <v>94.9795629194629</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B179" t="s">
+        <v>213</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>-8.32415360099692</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B180" t="s">
+        <v>105</v>
+      </c>
+      <c r="C180" t="n">
+        <v>10.1178821954374</v>
+      </c>
+      <c r="D180" t="n">
+        <v>2.82808777720217</v>
+      </c>
+      <c r="E180" t="n">
+        <v>17.4076766136727</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B181" t="s">
+        <v>160</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>-2.09334702659439</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B182" t="s">
+        <v>175</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>-8.19188539730028</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B183" t="s">
+        <v>224</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>-8.30962874629866</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B184" t="s">
+        <v>206</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>-8.60479453377199</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B185" t="s">
+        <v>194</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>-26.2293198904399</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B186" t="s">
+        <v>92</v>
+      </c>
+      <c r="C186" t="n">
+        <v>260.521657170256</v>
+      </c>
+      <c r="D186" t="n">
+        <v>250.639671179111</v>
+      </c>
+      <c r="E186" t="n">
+        <v>270.403643161401</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B187" t="s">
+        <v>152</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>-2.02735491442901</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B188" t="s">
+        <v>177</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>-10.0998838014511</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B189" t="s">
+        <v>171</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>-7.97201982268035</v>
       </c>
     </row>
   </sheetData>
@@ -6189,16 +6774,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="D1" t="s">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
@@ -6206,7 +6791,7 @@
         <v>2018</v>
       </c>
       <c r="B2" t="n">
-        <v>2512.343752</v>
+        <v>2901.230926</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -6216,7 +6801,7 @@
         <v>2019</v>
       </c>
       <c r="B3" t="n">
-        <v>2401.601837</v>
+        <v>2944.725215</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -6226,7 +6811,7 @@
         <v>2020</v>
       </c>
       <c r="B4" t="n">
-        <v>2218.583533</v>
+        <v>3683.025173</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -6236,7 +6821,7 @@
         <v>2021</v>
       </c>
       <c r="B5" t="n">
-        <v>1595.18694400001</v>
+        <v>3795.785531</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -6246,7 +6831,7 @@
         <v>2022</v>
       </c>
       <c r="B6" t="n">
-        <v>1922.899846</v>
+        <v>9758.15891900001</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -6256,13 +6841,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="n">
-        <v>1768.33223508256</v>
+        <v>24880.7089010771</v>
       </c>
       <c r="C7" t="n">
-        <v>1492.68988207619</v>
+        <v>23840.5754357379</v>
       </c>
       <c r="D7" t="n">
-        <v>2043.97458808892</v>
+        <v>24854.9657945138</v>
       </c>
     </row>
   </sheetData>

--- a/output/keyword_analysis.xlsx
+++ b/output/keyword_analysis.xlsx
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.77083509312256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.5344666441071</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3644,7 +3644,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.5674060712493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3661,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.93031829495308</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.85348913173452</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3695,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>-58.635479222843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.94638138029691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-11.4613174952736</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -3848,7 +3848,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -3865,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3882,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-6.98280282097195</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-8.33821288015687</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-6.66129907959522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -3967,7 +3967,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-14.869162099</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-10.4733134674375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -4018,7 +4018,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-8.30584413197683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -4052,7 +4052,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-8.04929322228474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -4069,7 +4069,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-11.0237217006249</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-8.41122497200124</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-3.45784689848941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-8.3076055465776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -4171,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -4205,7 +4205,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -4222,7 +4222,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>-7.42483456295816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-7.08949581449801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -4273,7 +4273,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4324,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>-7.92409864565745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>-6.97320312307108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -4375,7 +4375,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>-10.5295661795593</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -4409,7 +4409,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>-7.45618784867693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -4545,7 +4545,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>-5.74819963651081</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>-6.60972309768979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -4579,7 +4579,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -4613,7 +4613,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -4630,7 +4630,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -4647,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>-10.2538930798816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -4664,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="n">
-        <v>-2.72570030328239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -4681,7 +4681,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.89685921685711</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -4698,7 +4698,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>-8.2634979516888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -4715,7 +4715,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4732,7 +4732,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="n">
-        <v>-8.16981149740135</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -4749,7 +4749,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="n">
-        <v>-8.32415360099692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -4783,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="n">
-        <v>-8.09466343600706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -4800,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.38404752190726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="n">
-        <v>-8.48010397972035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>-79.7392252529932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -4885,7 +4885,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.31193578122378</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -4919,7 +4919,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="n">
-        <v>-8.19268199968239</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -4987,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="n">
-        <v>-26.2079798890794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -5038,7 +5038,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>-6.73810335830888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="n">
-        <v>-5.88922013985471</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -5072,7 +5072,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="n">
-        <v>-8.32415360099692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="n">
-        <v>-5.79915195341529</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -5123,7 +5123,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>-2.41650159689667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -5140,7 +5140,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="n">
-        <v>-0.0354681144590144</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -5157,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>-8.47740824430666</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>-14.4922053079489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="n">
-        <v>-8.31028772375506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -5208,7 +5208,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="n">
-        <v>-7.06050575321986</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5259,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="n">
-        <v>-1.51700422872233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -5327,7 +5327,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="n">
-        <v>-7.22605829295712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -5378,7 +5378,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -5412,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="n">
-        <v>-5.4114600707594</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="n">
-        <v>-8.97746091831663</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -5480,7 +5480,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="n">
-        <v>-8.29574113958822</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -5497,7 +5497,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>-0.201220093640234</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -5514,7 +5514,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="n">
-        <v>-8.30615890849566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
@@ -5582,7 +5582,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="n">
-        <v>-2.42832866089927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -5599,7 +5599,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
@@ -5633,7 +5633,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -5650,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -5667,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="n">
-        <v>-8.58991780221718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>-8.05371512915964</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5752,7 +5752,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>-8.76572328276101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="n">
-        <v>-8.63866708314807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -5803,7 +5803,7 @@
         <v>0</v>
       </c>
       <c r="E133" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="n">
-        <v>-13.4568990169994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -5854,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>-9.63300790076417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -5871,7 +5871,7 @@
         <v>0</v>
       </c>
       <c r="E137" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -5888,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>-5.69456226130862</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -5905,7 +5905,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>-4.77528546374877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -5922,7 +5922,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="n">
-        <v>-7.15073091742705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
@@ -5939,7 +5939,7 @@
         <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>-8.59585164940863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -5956,7 +5956,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="n">
-        <v>-5.83949962338829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="n">
-        <v>-8.5935120902476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -6024,7 +6024,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -6041,7 +6041,7 @@
         <v>0</v>
       </c>
       <c r="E147" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -6058,7 +6058,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
@@ -6075,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="n">
-        <v>-8.70503839766878</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -6160,7 +6160,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="n">
-        <v>-7.52823114157726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
       <c r="E155" t="n">
-        <v>-7.28095288058677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
@@ -6194,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="n">
-        <v>-8.48010397972035</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -6211,7 +6211,7 @@
         <v>0</v>
       </c>
       <c r="E157" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -6228,7 +6228,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="n">
-        <v>-8.31028772375506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
@@ -6245,7 +6245,7 @@
         <v>0</v>
       </c>
       <c r="E159" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -6279,7 +6279,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="n">
-        <v>-6.41102040741085</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
@@ -6313,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>-6.00583433806426</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -6330,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="n">
-        <v>-3.07663730182296</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -6347,7 +6347,7 @@
         <v>0</v>
       </c>
       <c r="E165" t="n">
-        <v>-7.73635137854122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -6364,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="n">
-        <v>-8.45914554059683</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="E167" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -6398,7 +6398,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="n">
-        <v>-8.19736432406102</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="E169" t="n">
-        <v>-7.53683661144898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -6432,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="n">
-        <v>-11.9374112469981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -6483,7 +6483,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="n">
-        <v>-3.40886450560713</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="E177" t="n">
-        <v>-17.1168471071899</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -6585,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="E179" t="n">
-        <v>-8.32415360099692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
@@ -6619,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="E181" t="n">
-        <v>-2.09334702659439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -6636,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="n">
-        <v>-8.19188539730028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -6653,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="E183" t="n">
-        <v>-8.30962874629866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="n">
-        <v>-8.60479453377199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
@@ -6687,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="E185" t="n">
-        <v>-26.2293198904399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
       <c r="E187" t="n">
-        <v>-2.02735491442901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -6738,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="n">
-        <v>-10.0998838014511</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -6755,7 +6755,7 @@
         <v>0</v>
       </c>
       <c r="E189" t="n">
-        <v>-7.97201982268035</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -6847,7 +6847,7 @@
         <v>23840.5754357379</v>
       </c>
       <c r="D7" t="n">
-        <v>24854.9657945138</v>
+        <v>25996.6101794061</v>
       </c>
     </row>
   </sheetData>

--- a/output/keyword_analysis.xlsx
+++ b/output/keyword_analysis.xlsx
@@ -37,735 +37,744 @@
     <t xml:space="preserve">donor_name</t>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
+    <t xml:space="preserve">International Development Association</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU Institutions</t>
   </si>
   <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Emergency Response Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Council of Europe Development Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian Development Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Arab Emirates</t>
+  </si>
+  <si>
     <t xml:space="preserve">Spain</t>
   </si>
   <si>
+    <t xml:space="preserve">UNHCR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ireland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central American Bank for Economic Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islamic Development Bank</t>
+  </si>
+  <si>
     <t xml:space="preserve">Netherlands</t>
   </si>
   <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Development Association</t>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter-American Development Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Health Organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arab Fund (AFESD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czechia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
   </si>
   <si>
     <t xml:space="preserve">Poland</t>
   </si>
   <si>
-    <t xml:space="preserve">EU Institutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Emergency Response Fund</t>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Environment Facility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hungary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adaptation Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iceland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Qatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UN Peacebuilding Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEC Fund for International Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNAIDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNDP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Green Climate Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croatia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovak Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordic Development Fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">African Development Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Türkiye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate Investment Funds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global Green Growth Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slovenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liechtenstein</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WHO-Strategic Preparedness and Response Plan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caribbean Development Bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Labour Organisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latvia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WFP</t>
   </si>
   <si>
     <t xml:space="preserve">Israel</t>
   </si>
   <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Council of Europe Development Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asian Development Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United Arab Emirates</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNHCR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ireland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Czechia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central American Bank for Economic Integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Croatia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Islamic Development Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Türkiye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inter-American Development Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iceland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Health Organisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arab Fund (AFESD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hungary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Environment Facility</t>
+    <t xml:space="preserve">Malta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development Bank of Latin America</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arab Bank for Economic Development in Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income_group_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDCs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMICs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UMICs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Part I unallocated by income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other LICs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MADCTs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recipient_name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Syrian Arab Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangladesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ukraine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lebanon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilateral, unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iraq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethiopia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Bank and Gaza Strip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pakistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">India</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uzbekistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sudan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mexico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somalia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serbia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myanmar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indonesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Africa, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunisia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armenia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Africa, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Salvador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jordan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haiti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mozambique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philippines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mali</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South of Sahara, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burkina Faso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Djibouti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ecuador</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cameroon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central African Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egypt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">America, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namibia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middle East, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South America, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asia, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guatemala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venezuela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South &amp; Central Asia, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Africa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mongolia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honduras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Georgia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">China (People's Republic of)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyrgyzstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caribbean, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhutan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North of Sahara, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viet Nam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fiji</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ghana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Macedonia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oceania, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madagascar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caribbean &amp; Central America, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vanuatu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lao People's Democratic Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kosovo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gambia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabo Verde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicaragua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sri Lanka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belarus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thailand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambodia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algeria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Togo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paraguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morocco</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bolivia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central America, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Far East Asia, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Congo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gabon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kazakhstan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiribati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Azerbaijan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Asia, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malaysia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Asia, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tajikistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dominican Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tonga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Samoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamaica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guyana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afghanistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suriname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sierra Leone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Africa, regional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papua New Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montserrat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lesotho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Lucia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Timor-Leste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eritrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equatorial Guinea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wallis and Futuna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barbados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Botswana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cook Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">States Ex-Yugoslavia unspecified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montenegro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guinea-Bissau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comoros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marshall Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Micronesia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mauritius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokelau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuvalu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkmenistan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nauru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solomon Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grenada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eswatini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maldives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulgaria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahrain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahamas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Sahara</t>
   </si>
   <si>
     <t xml:space="preserve">Lithuania</t>
   </si>
   <si>
-    <t xml:space="preserve">Adaptation Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Qatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Latvia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UN Peacebuilding Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPEC Fund for International Development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNAIDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNDP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slovak Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Green Climate Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nordic Development Fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">African Development Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climate Investment Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Global Green Growth Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liechtenstein</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WHO-Strategic Preparedness and Response Plan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caribbean Development Bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Labour Organisation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WFP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thailand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development Bank of Latin America</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arab Bank for Economic Development in Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">income_group_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Part I unallocated by income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LDCs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMICs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UMICs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other LICs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MADCTs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">recipient_name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bilateral, unspecified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Syrian Arab Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bangladesh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ukraine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nigeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yemen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lebanon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ethiopia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iraq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Democratic Republic of the Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pakistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">West Bank and Gaza Strip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sudan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">India</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uzbekistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venezuela</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indonesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colombia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bosnia and Herzegovina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somalia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El Salvador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serbia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uganda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myanmar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Armenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mexico</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Philippines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tunisia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Africa, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mali</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haiti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mozambique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jordan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Djibouti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Africa, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cameroon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burkina Faso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niger</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South of Sahara, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ecuador</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Georgia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namibia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tanzania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egypt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Honduras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central African Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">America, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morocco</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moldova</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middle East, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South America, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asia, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guatemala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Libya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malawi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South &amp; Central Asia, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mongolia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Côte d'Ivoire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Africa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">China (People's Republic of)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algeria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caribbean, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burundi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Senegal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyrgyzstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viet Nam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ghana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rwanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nicaragua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North of Sahara, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bhutan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fiji</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Macedonia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oceania, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Argentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zimbabwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Liberia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Madagascar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vanuatu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lao People's Democratic Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zambia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caribbean &amp; Central America, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cabo Verde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belarus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antigua and Barbuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambodia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Togo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Congo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bolivia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paraguay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sri Lanka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritania</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Azerbaijan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gabon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Costa Rica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central America, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kosovo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Far East Asia, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angola</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamaica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sierra Leone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Malaysia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central Asia, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiribati</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tajikistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eritrea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Asia, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Benin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tonga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dominican Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kazakhstan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guinea-Bissau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belize</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guyana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Vincent and the Grenadines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equatorial Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suriname</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Papua New Guinea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montserrat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Africa, regional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sao Tome and Principe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lesotho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Timor-Leste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Lucia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wallis and Futuna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Botswana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cook Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">States Ex-Yugoslavia unspecified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comoros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montenegro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marshall Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Micronesia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mauritius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tuvalu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkmenistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eswatini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nauru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Solomon Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grenada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maldives</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Afghanistan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulgaria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahrain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahamas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barbados</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Sahara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saint Kitts and Nevis</t>
-  </si>
-  <si>
     <t xml:space="preserve">MNP</t>
   </si>
   <si>
@@ -785,15 +794,6 @@
   </si>
   <si>
     <t xml:space="preserve">Seychelles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tokelau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinidad and Tobago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Uruguay</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -1322,7 +1322,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>19382.530252</v>
+        <v>7497.15342000001</v>
       </c>
     </row>
     <row r="3">
@@ -1330,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>2974.690861</v>
+        <v>2973.771781</v>
       </c>
     </row>
     <row r="4">
@@ -1338,7 +1338,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>725.704651</v>
+        <v>458.532778</v>
       </c>
     </row>
   </sheetData>
@@ -1369,7 +1369,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>6235.027635</v>
+        <v>2020.517135</v>
       </c>
     </row>
     <row r="3">
@@ -1377,7 +1377,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>2022.10681</v>
+        <v>1709.676699</v>
       </c>
     </row>
     <row r="4">
@@ -1385,7 +1385,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>1962.099765</v>
+        <v>1238.368733</v>
       </c>
     </row>
     <row r="5">
@@ -1393,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>1803.088541</v>
+        <v>1140.072855</v>
       </c>
     </row>
     <row r="6">
@@ -1401,7 +1401,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>1451.744962</v>
+        <v>762.611419</v>
       </c>
     </row>
     <row r="7">
@@ -1409,7 +1409,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>1440.302094</v>
+        <v>738.499461</v>
       </c>
     </row>
     <row r="8">
@@ -1417,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>1238.368733</v>
+        <v>732.966259</v>
       </c>
     </row>
     <row r="9">
@@ -1425,7 +1425,7 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>1144.575875</v>
+        <v>535.473245</v>
       </c>
     </row>
     <row r="10">
@@ -1433,7 +1433,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>1140.077164</v>
+        <v>285.559802</v>
       </c>
     </row>
     <row r="11">
@@ -1441,7 +1441,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>738.504031</v>
+        <v>260.176388</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>614.211767</v>
+        <v>235.216673</v>
       </c>
     </row>
     <row r="13">
@@ -1457,7 +1457,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>535.473245</v>
+        <v>116.463091</v>
       </c>
     </row>
     <row r="14">
@@ -1465,7 +1465,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>472.083749</v>
+        <v>114.367476</v>
       </c>
     </row>
     <row r="15">
@@ -1473,7 +1473,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>285.559802</v>
+        <v>94.874169</v>
       </c>
     </row>
     <row r="16">
@@ -1481,7 +1481,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="n">
-        <v>275.938586</v>
+        <v>92.108149</v>
       </c>
     </row>
     <row r="17">
@@ -1489,7 +1489,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="n">
-        <v>235.216673</v>
+        <v>78.261343</v>
       </c>
     </row>
     <row r="18">
@@ -1497,7 +1497,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="n">
-        <v>195.15035</v>
+        <v>75.813665</v>
       </c>
     </row>
     <row r="19">
@@ -1505,7 +1505,7 @@
         <v>23</v>
       </c>
       <c r="B19" t="n">
-        <v>116.463091</v>
+        <v>75.258806</v>
       </c>
     </row>
     <row r="20">
@@ -1513,7 +1513,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>114.367476</v>
+        <v>57.910252</v>
       </c>
     </row>
     <row r="21">
@@ -1521,7 +1521,7 @@
         <v>25</v>
       </c>
       <c r="B21" t="n">
-        <v>99.0666879999999</v>
+        <v>50.289304</v>
       </c>
     </row>
     <row r="22">
@@ -1529,7 +1529,7 @@
         <v>26</v>
       </c>
       <c r="B22" t="n">
-        <v>76.65287</v>
+        <v>48.3162720000001</v>
       </c>
     </row>
     <row r="23">
@@ -1537,7 +1537,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="n">
-        <v>75.258806</v>
+        <v>42.680535</v>
       </c>
     </row>
     <row r="24">
@@ -1545,7 +1545,7 @@
         <v>28</v>
       </c>
       <c r="B24" t="n">
-        <v>63.405569</v>
+        <v>41.78932</v>
       </c>
     </row>
     <row r="25">
@@ -1553,7 +1553,7 @@
         <v>29</v>
       </c>
       <c r="B25" t="n">
-        <v>57.237116</v>
+        <v>39.32387</v>
       </c>
     </row>
     <row r="26">
@@ -1561,7 +1561,7 @@
         <v>30</v>
       </c>
       <c r="B26" t="n">
-        <v>53.046604</v>
+        <v>38.232049</v>
       </c>
     </row>
     <row r="27">
@@ -1569,7 +1569,7 @@
         <v>31</v>
       </c>
       <c r="B27" t="n">
-        <v>52.33526</v>
+        <v>35.215741</v>
       </c>
     </row>
     <row r="28">
@@ -1577,7 +1577,7 @@
         <v>32</v>
       </c>
       <c r="B28" t="n">
-        <v>42.680535</v>
+        <v>28.966828</v>
       </c>
     </row>
     <row r="29">
@@ -1585,7 +1585,7 @@
         <v>33</v>
       </c>
       <c r="B29" t="n">
-        <v>41.78932</v>
+        <v>26.047243</v>
       </c>
     </row>
     <row r="30">
@@ -1593,7 +1593,7 @@
         <v>34</v>
       </c>
       <c r="B30" t="n">
-        <v>39.395973</v>
+        <v>24.825288</v>
       </c>
     </row>
     <row r="31">
@@ -1601,7 +1601,7 @@
         <v>35</v>
       </c>
       <c r="B31" t="n">
-        <v>39.32387</v>
+        <v>21.07135</v>
       </c>
     </row>
     <row r="32">
@@ -1609,7 +1609,7 @@
         <v>36</v>
       </c>
       <c r="B32" t="n">
-        <v>38.232049</v>
+        <v>19.211605</v>
       </c>
     </row>
     <row r="33">
@@ -1617,7 +1617,7 @@
         <v>37</v>
       </c>
       <c r="B33" t="n">
-        <v>37.914243</v>
+        <v>18.025157</v>
       </c>
     </row>
     <row r="34">
@@ -1625,7 +1625,7 @@
         <v>38</v>
       </c>
       <c r="B34" t="n">
-        <v>35.215741</v>
+        <v>15.240935</v>
       </c>
     </row>
     <row r="35">
@@ -1633,7 +1633,7 @@
         <v>39</v>
       </c>
       <c r="B35" t="n">
-        <v>33.085196</v>
+        <v>14.993281</v>
       </c>
     </row>
     <row r="36">
@@ -1641,7 +1641,7 @@
         <v>40</v>
       </c>
       <c r="B36" t="n">
-        <v>31.234644</v>
+        <v>12.105882</v>
       </c>
     </row>
     <row r="37">
@@ -1649,7 +1649,7 @@
         <v>41</v>
       </c>
       <c r="B37" t="n">
-        <v>27.962704</v>
+        <v>12.101012</v>
       </c>
     </row>
     <row r="38">
@@ -1657,7 +1657,7 @@
         <v>42</v>
       </c>
       <c r="B38" t="n">
-        <v>21.07135</v>
+        <v>9.84379</v>
       </c>
     </row>
     <row r="39">
@@ -1665,7 +1665,7 @@
         <v>43</v>
       </c>
       <c r="B39" t="n">
-        <v>20.693917</v>
+        <v>9.737114</v>
       </c>
     </row>
     <row r="40">
@@ -1673,7 +1673,7 @@
         <v>44</v>
       </c>
       <c r="B40" t="n">
-        <v>20.209025</v>
+        <v>8.781447</v>
       </c>
     </row>
     <row r="41">
@@ -1681,7 +1681,7 @@
         <v>45</v>
       </c>
       <c r="B41" t="n">
-        <v>19.211605</v>
+        <v>6.789543</v>
       </c>
     </row>
     <row r="42">
@@ -1689,7 +1689,7 @@
         <v>46</v>
       </c>
       <c r="B42" t="n">
-        <v>18.025157</v>
+        <v>6.411185</v>
       </c>
     </row>
     <row r="43">
@@ -1697,7 +1697,7 @@
         <v>47</v>
       </c>
       <c r="B43" t="n">
-        <v>14.993281</v>
+        <v>5.756393</v>
       </c>
     </row>
     <row r="44">
@@ -1705,7 +1705,7 @@
         <v>48</v>
       </c>
       <c r="B44" t="n">
-        <v>12.685471</v>
+        <v>5.398365</v>
       </c>
     </row>
     <row r="45">
@@ -1713,7 +1713,7 @@
         <v>49</v>
       </c>
       <c r="B45" t="n">
-        <v>12.448733</v>
+        <v>5.312179</v>
       </c>
     </row>
     <row r="46">
@@ -1721,7 +1721,7 @@
         <v>50</v>
       </c>
       <c r="B46" t="n">
-        <v>12.105882</v>
+        <v>2.939179</v>
       </c>
     </row>
     <row r="47">
@@ -1729,7 +1729,7 @@
         <v>51</v>
       </c>
       <c r="B47" t="n">
-        <v>9.84379</v>
+        <v>2.754544</v>
       </c>
     </row>
     <row r="48">
@@ -1737,7 +1737,7 @@
         <v>52</v>
       </c>
       <c r="B48" t="n">
-        <v>9.737114</v>
+        <v>2.726278</v>
       </c>
     </row>
     <row r="49">
@@ -1745,7 +1745,7 @@
         <v>53</v>
       </c>
       <c r="B49" t="n">
-        <v>9.704341</v>
+        <v>2.217788</v>
       </c>
     </row>
     <row r="50">
@@ -1753,7 +1753,7 @@
         <v>54</v>
       </c>
       <c r="B50" t="n">
-        <v>6.789543</v>
+        <v>1.588943</v>
       </c>
     </row>
     <row r="51">
@@ -1761,7 +1761,7 @@
         <v>55</v>
       </c>
       <c r="B51" t="n">
-        <v>5.756393</v>
+        <v>1.320344</v>
       </c>
     </row>
     <row r="52">
@@ -1769,7 +1769,7 @@
         <v>56</v>
       </c>
       <c r="B52" t="n">
-        <v>5.638795</v>
+        <v>1.057403</v>
       </c>
     </row>
     <row r="53">
@@ -1777,7 +1777,7 @@
         <v>57</v>
       </c>
       <c r="B53" t="n">
-        <v>5.312179</v>
+        <v>0.585693</v>
       </c>
     </row>
     <row r="54">
@@ -1785,7 +1785,7 @@
         <v>58</v>
       </c>
       <c r="B54" t="n">
-        <v>2.83011</v>
+        <v>0.550302</v>
       </c>
     </row>
     <row r="55">
@@ -1793,7 +1793,7 @@
         <v>59</v>
       </c>
       <c r="B55" t="n">
-        <v>2.726278</v>
+        <v>0.535752</v>
       </c>
     </row>
     <row r="56">
@@ -1801,7 +1801,7 @@
         <v>60</v>
       </c>
       <c r="B56" t="n">
-        <v>2.217788</v>
+        <v>0.501457</v>
       </c>
     </row>
     <row r="57">
@@ -1809,7 +1809,7 @@
         <v>61</v>
       </c>
       <c r="B57" t="n">
-        <v>1.732502</v>
+        <v>0.411223</v>
       </c>
     </row>
     <row r="58">
@@ -1817,7 +1817,7 @@
         <v>62</v>
       </c>
       <c r="B58" t="n">
-        <v>1.588943</v>
+        <v>0.311835</v>
       </c>
     </row>
     <row r="59">
@@ -1825,7 +1825,7 @@
         <v>63</v>
       </c>
       <c r="B59" t="n">
-        <v>0.798616</v>
+        <v>0.289412</v>
       </c>
     </row>
     <row r="60">
@@ -1833,7 +1833,7 @@
         <v>64</v>
       </c>
       <c r="B60" t="n">
-        <v>0.585693</v>
+        <v>0.254496</v>
       </c>
     </row>
     <row r="61">
@@ -1841,7 +1841,7 @@
         <v>65</v>
       </c>
       <c r="B61" t="n">
-        <v>0.550302</v>
+        <v>0.20949</v>
       </c>
     </row>
     <row r="62">
@@ -1849,7 +1849,7 @@
         <v>66</v>
       </c>
       <c r="B62" t="n">
-        <v>0.501457</v>
+        <v>0.160793</v>
       </c>
     </row>
     <row r="63">
@@ -1857,7 +1857,7 @@
         <v>67</v>
       </c>
       <c r="B63" t="n">
-        <v>0.289412</v>
+        <v>0.133369</v>
       </c>
     </row>
     <row r="64">
@@ -1865,7 +1865,7 @@
         <v>68</v>
       </c>
       <c r="B64" t="n">
-        <v>0.20949</v>
+        <v>0.109636</v>
       </c>
     </row>
     <row r="65">
@@ -1873,7 +1873,7 @@
         <v>69</v>
       </c>
       <c r="B65" t="n">
-        <v>0.160793</v>
+        <v>0.061968</v>
       </c>
     </row>
     <row r="66">
@@ -1881,7 +1881,7 @@
         <v>70</v>
       </c>
       <c r="B66" t="n">
-        <v>0.133369</v>
+        <v>0.05574</v>
       </c>
     </row>
     <row r="67">
@@ -1889,7 +1889,7 @@
         <v>71</v>
       </c>
       <c r="B67" t="n">
-        <v>0.109636</v>
+        <v>0.01093</v>
       </c>
     </row>
     <row r="68">
@@ -1897,7 +1897,7 @@
         <v>72</v>
       </c>
       <c r="B68" t="n">
-        <v>0.05574</v>
+        <v>0.010096</v>
       </c>
     </row>
     <row r="69">
@@ -1905,7 +1905,7 @@
         <v>73</v>
       </c>
       <c r="B69" t="n">
-        <v>0.010096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -1913,22 +1913,6 @@
         <v>74</v>
       </c>
       <c r="B70" t="n">
-        <v>0.001426</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="s">
-        <v>75</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s">
-        <v>76</v>
-      </c>
-      <c r="B72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1949,7 +1933,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1957,50 +1941,50 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" t="n">
-        <v>33789.4457788207</v>
+        <v>4720.17698251538</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" t="n">
-        <v>5701.18110773799</v>
+        <v>3219.91814862499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" t="n">
-        <v>3952.35055642211</v>
+        <v>2616.30850245973</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" t="n">
-        <v>3090.03839076199</v>
+        <v>1280.12389943726</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" t="n">
-        <v>1424.77092233433</v>
+        <v>1100.03333384186</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" t="n">
-        <v>5.847909</v>
+        <v>9.38694025600722</v>
       </c>
     </row>
   </sheetData>
@@ -2020,7 +2004,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -2028,1370 +2012,1370 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" t="n">
-        <v>32894.0731880109</v>
+        <v>1100.03333384186</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" t="n">
-        <v>1424.77092233433</v>
+        <v>908.646143710726</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" t="n">
-        <v>1086.9306779769</v>
+        <v>695.181237135711</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" t="n">
-        <v>883.565188342453</v>
+        <v>673.466106222703</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B6" t="n">
-        <v>797.207412125521</v>
+        <v>584.861155854569</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" t="n">
-        <v>795.871914437046</v>
+        <v>540.994428271996</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="n">
-        <v>585.121940807967</v>
+        <v>487.858749925866</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B9" t="n">
-        <v>581.535716170256</v>
+        <v>479.250843368928</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B10" t="n">
-        <v>537.401626647474</v>
+        <v>463.827799708328</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B11" t="n">
-        <v>493.912093528871</v>
+        <v>408.866754628427</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" t="n">
-        <v>473.461740610781</v>
+        <v>388.967135058532</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B13" t="n">
-        <v>456.709208419832</v>
+        <v>367.3482615572</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B14" t="n">
-        <v>443.363382416194</v>
+        <v>326.758761729702</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B15" t="n">
-        <v>418.873015180332</v>
+        <v>326.72990437871</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B16" t="n">
-        <v>389.222672044069</v>
+        <v>295.710583269996</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B17" t="n">
-        <v>348.467522509391</v>
+        <v>284.73262031311</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B18" t="n">
-        <v>261.598228446651</v>
+        <v>279.077972341831</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B19" t="n">
-        <v>251.448802</v>
+        <v>242.71691016939</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B20" t="n">
-        <v>248.406095825849</v>
+        <v>187.75720481048</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="B21" t="n">
-        <v>236.820081870301</v>
+        <v>179.55960496718</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="B22" t="n">
-        <v>232.014953916684</v>
+        <v>174.432524198394</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B23" t="n">
-        <v>201.209519195437</v>
+        <v>145.426306096756</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B24" t="n">
-        <v>182.536737471808</v>
+        <v>127.982296649417</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B25" t="n">
-        <v>180.437334420147</v>
+        <v>126.333093497727</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B26" t="n">
-        <v>180.285609473454</v>
+        <v>125.204985344106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B27" t="n">
-        <v>169.991786441172</v>
+        <v>120.912016234388</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B28" t="n">
-        <v>168.607422402524</v>
+        <v>108.399787417192</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B29" t="n">
-        <v>147.065634603209</v>
+        <v>105.769671657334</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B30" t="n">
-        <v>139.515572303349</v>
+        <v>102.207799911629</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B31" t="n">
-        <v>132.346572387136</v>
+        <v>93.1662202441886</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B32" t="n">
-        <v>126.698518384575</v>
+        <v>88.1467302005447</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B33" t="n">
-        <v>122.958049</v>
+        <v>85.3543390289804</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B34" t="n">
-        <v>104.38265533881</v>
+        <v>83.5518327384621</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B35" t="n">
-        <v>100.022496</v>
+        <v>80.1996240799316</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B36" t="n">
-        <v>97.234967</v>
+        <v>79.3601350475278</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B37" t="n">
-        <v>94.9311396195079</v>
+        <v>76.555723930375</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B38" t="n">
-        <v>83.1493545596507</v>
+        <v>75.7115700277539</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B39" t="n">
-        <v>78.3201231690439</v>
+        <v>70.2935304088022</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B40" t="n">
-        <v>73.2853830874162</v>
+        <v>65.5215759572701</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B41" t="n">
-        <v>69.6059815450674</v>
+        <v>64.4836255743594</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B42" t="n">
-        <v>66.348717</v>
+        <v>64.2569080285156</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B43" t="n">
-        <v>66.1791009073279</v>
+        <v>62.9263317871107</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B44" t="n">
-        <v>62.9023213060895</v>
+        <v>60.4100886346967</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B45" t="n">
-        <v>62.2934952140531</v>
+        <v>59.6623107391752</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B46" t="n">
-        <v>57.4191838797543</v>
+        <v>57.5175980653995</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B47" t="n">
-        <v>56.21429</v>
+        <v>53.8670945192915</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B48" t="n">
-        <v>56.0480303685754</v>
+        <v>47.9757799335795</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B49" t="n">
-        <v>55.969711</v>
+        <v>47.5316191810356</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B50" t="n">
-        <v>51.0696943946282</v>
+        <v>46.3570698747993</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B51" t="n">
-        <v>50.725288</v>
+        <v>45.7658066890544</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B52" t="n">
-        <v>44.819404</v>
+        <v>42.6942032989425</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B53" t="n">
-        <v>44.05819</v>
+        <v>42.1407210544648</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B54" t="n">
-        <v>43.6470263737181</v>
+        <v>38.9332403211432</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B55" t="n">
-        <v>39.131746189471</v>
+        <v>35.230291775885</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B56" t="n">
-        <v>37.000657</v>
+        <v>33.9564879410875</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B57" t="n">
-        <v>35.716019</v>
+        <v>33.6283362334812</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B58" t="n">
-        <v>31.7442733293217</v>
+        <v>31.039770896773</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B59" t="n">
-        <v>31.226172</v>
+        <v>30.5675688219322</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B60" t="n">
-        <v>31.216225</v>
+        <v>29.3667390054973</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B61" t="n">
-        <v>30.3924625102285</v>
+        <v>28.8447853685467</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B62" t="n">
-        <v>28.943139</v>
+        <v>28.792797141957</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B63" t="n">
-        <v>26.645583</v>
+        <v>28.5505548079559</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B64" t="n">
-        <v>26.38855</v>
+        <v>28.1987314577904</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B65" t="n">
-        <v>26.192688</v>
+        <v>27.0921774116039</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B66" t="n">
-        <v>26.187617</v>
+        <v>26.8376343603118</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B67" t="n">
-        <v>25.087838</v>
+        <v>24.6523611827074</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B68" t="n">
-        <v>24.4613447285879</v>
+        <v>23.8524024933237</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B69" t="n">
-        <v>24.251805</v>
+        <v>22.0140810715377</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B70" t="n">
-        <v>23.448019</v>
+        <v>21.8600633699045</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B71" t="n">
-        <v>21.705895</v>
+        <v>21.5375811908109</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B72" t="n">
-        <v>21.451258</v>
+        <v>20.8343556280036</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B73" t="n">
-        <v>19.06484</v>
+        <v>20.416053947403</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B74" t="n">
-        <v>18.846718</v>
+        <v>19.4259859322952</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B75" t="n">
-        <v>17.643351</v>
+        <v>19.1423560319603</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B76" t="n">
-        <v>17.0384775020862</v>
+        <v>19.121201885515</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B77" t="n">
-        <v>16.23792</v>
+        <v>18.177368556424</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B78" t="n">
-        <v>16.018877</v>
+        <v>16.8978218478107</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B79" t="n">
-        <v>15.829922</v>
+        <v>16.683230236724</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B80" t="n">
-        <v>15.805375</v>
+        <v>16.0725311491526</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B81" t="n">
-        <v>14.77278</v>
+        <v>15.6886864331606</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B82" t="n">
-        <v>14.618125</v>
+        <v>15.1122931466224</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B83" t="n">
-        <v>14.45280634919</v>
+        <v>14.8975447089467</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B84" t="n">
-        <v>14.386306</v>
+        <v>14.6556333261907</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B85" t="n">
-        <v>14.240553</v>
+        <v>14.2891488582073</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B86" t="n">
-        <v>13.291356</v>
+        <v>13.2891041786885</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B87" t="n">
-        <v>13.268078</v>
+        <v>12.8153202274689</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B88" t="n">
-        <v>12.722243</v>
+        <v>11.613029494105</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B89" t="n">
-        <v>12.165227</v>
+        <v>11.4881275413692</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B90" t="n">
-        <v>11.533185</v>
+        <v>11.0597801553667</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B91" t="n">
-        <v>11.224321</v>
+        <v>10.6409886401254</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B92" t="n">
-        <v>11.177527</v>
+        <v>9.40137475746469</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B93" t="n">
-        <v>8.94102</v>
+        <v>9.19212356795593</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B94" t="n">
-        <v>8.21467</v>
+        <v>8.50030114494059</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B95" t="n">
-        <v>8.003944</v>
+        <v>7.94700104809276</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B96" t="n">
-        <v>6.753753</v>
+        <v>7.79256300125256</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B97" t="n">
-        <v>6.506923</v>
+        <v>7.42662562800361</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B98" t="n">
-        <v>5.906101</v>
+        <v>7.41252765976032</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B99" t="n">
-        <v>5.65711</v>
+        <v>7.40932143856512</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B100" t="n">
-        <v>5.266394</v>
+        <v>7.36506043350442</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B101" t="n">
-        <v>5.103123</v>
+        <v>6.89582022333868</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B102" t="n">
-        <v>4.547807</v>
+        <v>6.62936366581683</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B103" t="n">
-        <v>4.212468</v>
+        <v>6.58530933009272</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B104" t="n">
-        <v>4.17428</v>
+        <v>6.4544205558841</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B105" t="n">
-        <v>3.866644</v>
+        <v>6.29862822302778</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>74</v>
+        <v>186</v>
       </c>
       <c r="B106" t="n">
-        <v>3.835015</v>
+        <v>6.03639909864488</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B107" t="n">
-        <v>3.784953</v>
+        <v>5.75695065767911</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B108" t="n">
-        <v>3.77815</v>
+        <v>5.49821595622974</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B109" t="n">
-        <v>3.614614</v>
+        <v>5.26837321183679</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B110" t="n">
-        <v>3.530877</v>
+        <v>5.24149470500517</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B111" t="n">
-        <v>3.368276</v>
+        <v>5.17094962800361</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B112" t="n">
-        <v>3.326894</v>
+        <v>5.04485979762749</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B113" t="n">
-        <v>3.290094</v>
+        <v>4.95338947666091</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B114" t="n">
-        <v>3.284917</v>
+        <v>4.70900071422962</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B115" t="n">
-        <v>3.076449</v>
+        <v>4.43402061501049</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B116" t="n">
-        <v>2.634607</v>
+        <v>4.40205077602227</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B117" t="n">
-        <v>2.313315</v>
+        <v>4.24555158212646</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B118" t="n">
-        <v>2.297146</v>
+        <v>4.16711185246558</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B119" t="n">
-        <v>2.175871</v>
+        <v>4.04354739796831</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B120" t="n">
-        <v>2.1364</v>
+        <v>3.93917546004958</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B121" t="n">
-        <v>2.048846</v>
+        <v>3.83452222251119</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B122" t="n">
-        <v>1.959114</v>
+        <v>3.68490948741125</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B123" t="n">
-        <v>1.885703</v>
+        <v>3.68442394724661</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B124" t="n">
-        <v>1.817077</v>
+        <v>3.61387038911157</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B125" t="n">
-        <v>1.802004</v>
+        <v>3.53007704965547</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B126" t="n">
-        <v>1.696137</v>
+        <v>3.24731808882316</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B127" t="n">
-        <v>1.597176</v>
+        <v>2.94888400477615</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B128" t="n">
-        <v>1.287845</v>
+        <v>2.64798905987845</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B129" t="n">
-        <v>1.035427</v>
+        <v>2.59935895258556</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B130" t="n">
-        <v>0.874387</v>
+        <v>2.5906178213146</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B131" t="n">
-        <v>0.774456</v>
+        <v>2.54137288192777</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B132" t="n">
-        <v>0.700431</v>
+        <v>2.5264762653997</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B133" t="n">
-        <v>0.583065</v>
+        <v>2.47202272930368</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B134" t="n">
-        <v>0.530236</v>
+        <v>2.38584236867626</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B135" t="n">
-        <v>0.51103</v>
+        <v>2.37590180212218</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B136" t="n">
-        <v>0.497426</v>
+        <v>2.35540279913564</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B137" t="n">
-        <v>0.425842</v>
+        <v>2.25757917134841</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B138" t="n">
-        <v>0.424355</v>
+        <v>2.19157606350608</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B139" t="n">
-        <v>0.413934</v>
+        <v>2.12999155121447</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B140" t="n">
-        <v>0.360416</v>
+        <v>2.11420459803025</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B141" t="n">
-        <v>0.34669</v>
+        <v>2.11265697772396</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B142" t="n">
-        <v>0.31911</v>
+        <v>2.11137589047164</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B143" t="n">
-        <v>0.250449</v>
+        <v>2.10634452271165</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B144" t="n">
-        <v>0.211585</v>
+        <v>2.10486462800361</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B145" t="n">
-        <v>0.190799</v>
+        <v>2.03081213886433</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B146" t="n">
-        <v>0.184432</v>
+        <v>2.01996462800361</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B147" t="n">
-        <v>0.165183</v>
+        <v>1.98412391076946</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B148" t="n">
-        <v>0.152428</v>
+        <v>1.98308936024326</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B149" t="n">
-        <v>0.096108</v>
+        <v>1.96031462800361</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B150" t="n">
-        <v>0.090821</v>
+        <v>1.95394762800361</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B151" t="n">
-        <v>0.07225</v>
+        <v>1.90233662800361</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>233</v>
+        <v>61</v>
       </c>
       <c r="B152" t="n">
-        <v>0.06904</v>
+        <v>1.89605594493889</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B153" t="n">
-        <v>0.030283</v>
+        <v>1.89213762800361</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B154" t="n">
-        <v>0.027538</v>
+        <v>1.88007162800361</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B155" t="n">
-        <v>0.006311</v>
+        <v>1.86562362800361</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B156" t="n">
-        <v>0.004972</v>
+        <v>1.86033662800361</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B157" t="n">
-        <v>0.004972</v>
+        <v>1.83855562800361</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B158" t="n">
-        <v>0</v>
+        <v>1.82531262800361</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>240</v>
+        <v>41</v>
       </c>
       <c r="B159" t="n">
-        <v>0</v>
+        <v>1.79978843109818</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>241</v>
+        <v>14</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>1.79559125891395</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B161" t="n">
-        <v>0</v>
+        <v>1.78907021418042</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>243</v>
+        <v>44</v>
       </c>
       <c r="B162" t="n">
-        <v>0</v>
+        <v>1.78511070838566</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>244</v>
+        <v>56</v>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1.78511070838566</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1.78389562800361</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>11</v>
+        <v>240</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>1.77689562800361</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B166" t="n">
-        <v>0</v>
+        <v>1.77448762800361</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>34</v>
+        <v>242</v>
       </c>
       <c r="B167" t="n">
-        <v>0</v>
+        <v>1.77448762800361</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1.77159172930368</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>6</v>
+        <v>244</v>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1.77159172930368</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>49</v>
+        <v>245</v>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1.76957555121447</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>22</v>
+        <v>246</v>
       </c>
       <c r="B171" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="B172" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
     </row>
     <row r="173">
@@ -3399,23 +3383,23 @@
         <v>248</v>
       </c>
       <c r="B173" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>53</v>
+        <v>249</v>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>249</v>
+        <v>38</v>
       </c>
       <c r="B175" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
     </row>
     <row r="176">
@@ -3423,55 +3407,55 @@
         <v>250</v>
       </c>
       <c r="B176" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>251</v>
+        <v>7</v>
       </c>
       <c r="B177" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="B179" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>63</v>
+        <v>251</v>
       </c>
       <c r="B180" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B181" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="B182" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
     </row>
     <row r="183">
@@ -3479,55 +3463,55 @@
         <v>254</v>
       </c>
       <c r="B183" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>61</v>
+        <v>255</v>
       </c>
       <c r="B184" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>48</v>
+        <v>256</v>
       </c>
       <c r="B185" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B186" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="B187" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B188" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>258</v>
+        <v>12</v>
       </c>
       <c r="B189" t="n">
-        <v>0</v>
+        <v>1.74605363995027</v>
       </c>
     </row>
   </sheetData>
@@ -3550,7 +3534,7 @@
         <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -3567,16 +3551,16 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.70950509864488</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.49548115926529</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.92352903802447</v>
       </c>
     </row>
     <row r="3">
@@ -3584,16 +3568,16 @@
         <v>2023</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="4">
@@ -3601,16 +3585,16 @@
         <v>2023</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>6.7026471786885</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.29798195258574</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>9.10731240479127</v>
       </c>
     </row>
     <row r="5">
@@ -3618,16 +3602,16 @@
         <v>2023</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="C5" t="n">
-        <v>3.20111951022849</v>
+        <v>6.96290294108751</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>5.78486396468272</v>
       </c>
       <c r="E5" t="n">
-        <v>10.5802163807457</v>
+        <v>8.14094191749231</v>
       </c>
     </row>
     <row r="6">
@@ -3635,16 +3619,16 @@
         <v>2023</v>
       </c>
       <c r="B6" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>2.5906178213146</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1.35428176203925</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>3.82695388058994</v>
       </c>
     </row>
     <row r="7">
@@ -3652,16 +3636,16 @@
         <v>2023</v>
       </c>
       <c r="B7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2.71205447666091</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1.49845282071209</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3.92565613260973</v>
       </c>
     </row>
     <row r="8">
@@ -3669,16 +3653,16 @@
         <v>2023</v>
       </c>
       <c r="B8" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2.39281477602227</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1.17594474502168</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>3.60968480702287</v>
       </c>
     </row>
     <row r="9">
@@ -3686,16 +3670,16 @@
         <v>2023</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>16.7049788079559</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>12.611926606628</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>20.7980310092837</v>
       </c>
     </row>
     <row r="10">
@@ -3703,16 +3687,16 @@
         <v>2023</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" t="n">
-        <v>55.6902193845745</v>
+        <v>20.4481092005447</v>
       </c>
       <c r="D10" t="n">
-        <v>48.2491527772468</v>
+        <v>19.0421714674734</v>
       </c>
       <c r="E10" t="n">
-        <v>63.1312859919022</v>
+        <v>21.8540469336161</v>
       </c>
     </row>
     <row r="11">
@@ -3720,16 +3704,16 @@
         <v>2023</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="12">
@@ -3737,16 +3721,16 @@
         <v>2023</v>
       </c>
       <c r="B12" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>1.96082061501049</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.736585716921734</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>3.18505551309925</v>
       </c>
     </row>
     <row r="13">
@@ -3754,16 +3738,16 @@
         <v>2023</v>
       </c>
       <c r="B13" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>8.82536168905437</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>7.66514027819695</v>
       </c>
       <c r="E13" t="n">
-        <v>5.85030999924106</v>
+        <v>9.9855830999118</v>
       </c>
     </row>
     <row r="14">
@@ -3771,16 +3755,16 @@
         <v>2023</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>5.1427694933237</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>3.96221525231743</v>
       </c>
       <c r="E14" t="n">
-        <v>1.45580223285609</v>
+        <v>6.32332373432998</v>
       </c>
     </row>
     <row r="15">
@@ -3788,16 +3772,16 @@
         <v>2023</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2.57859685246558</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1.35800691170203</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3.79918679322914</v>
       </c>
     </row>
     <row r="16">
@@ -3805,16 +3789,16 @@
         <v>2023</v>
       </c>
       <c r="B16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C16" t="n">
-        <v>5.86925130608944</v>
+        <v>9.37010602851557</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>8.21439653865175</v>
       </c>
       <c r="E16" t="n">
-        <v>13.113091207727</v>
+        <v>10.5258155183794</v>
       </c>
     </row>
     <row r="17">
@@ -3822,16 +3806,16 @@
         <v>2023</v>
       </c>
       <c r="B17" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C17" t="n">
-        <v>252.850244976898</v>
+        <v>75.7056947107257</v>
       </c>
       <c r="D17" t="n">
-        <v>242.893271172158</v>
+        <v>71.7953070422625</v>
       </c>
       <c r="E17" t="n">
-        <v>262.807218781637</v>
+        <v>79.6160823791887</v>
       </c>
     </row>
     <row r="18">
@@ -3839,16 +3823,16 @@
         <v>2023</v>
       </c>
       <c r="B18" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="19">
@@ -3856,16 +3840,16 @@
         <v>2023</v>
       </c>
       <c r="B19" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="20">
@@ -3873,16 +3857,16 @@
         <v>2023</v>
       </c>
       <c r="B20" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="21">
@@ -3890,16 +3874,16 @@
         <v>2023</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C21" t="n">
-        <v>55.0293984734541</v>
+        <v>20.245060096756</v>
       </c>
       <c r="D21" t="n">
-        <v>47.5906804724287</v>
+        <v>18.8445462771225</v>
       </c>
       <c r="E21" t="n">
-        <v>62.4681164744796</v>
+        <v>21.6455739163894</v>
       </c>
     </row>
     <row r="22">
@@ -3907,16 +3891,16 @@
         <v>2023</v>
       </c>
       <c r="B22" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>2.11055965976032</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.887795204351924</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>3.33332411516871</v>
       </c>
     </row>
     <row r="23">
@@ -3924,16 +3908,16 @@
         <v>2023</v>
       </c>
       <c r="B23" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.77360205987845</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.545778528371838</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.00142559138505</v>
       </c>
     </row>
     <row r="24">
@@ -3944,13 +3928,13 @@
         <v>185</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>2.23777822302778</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1.01705695078474</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>3.45849949527084</v>
       </c>
     </row>
     <row r="25">
@@ -3958,16 +3942,16 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>8.72820632114322</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>7.06323416746424</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>10.3931784748222</v>
       </c>
     </row>
     <row r="26">
@@ -3975,16 +3959,16 @@
         <v>2023</v>
       </c>
       <c r="B26" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1.98412391076946</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>0.741513658151436</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>3.22673416338749</v>
       </c>
     </row>
     <row r="27">
@@ -3992,16 +3976,16 @@
         <v>2023</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C27" t="n">
-        <v>1.02859634918996</v>
+        <v>6.99184394740298</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>5.8214735691931</v>
       </c>
       <c r="E27" t="n">
-        <v>8.35243741015645</v>
+        <v>8.16221432561286</v>
       </c>
     </row>
     <row r="28">
@@ -4009,16 +3993,16 @@
         <v>2023</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>1.77150436024326</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.543615943444589</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>2.99939277704193</v>
       </c>
     </row>
     <row r="29">
@@ -4026,16 +4010,16 @@
         <v>2023</v>
       </c>
       <c r="B29" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C29" t="n">
-        <v>4.53838637371809</v>
+        <v>9.78262493357954</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>8.61769744875577</v>
       </c>
       <c r="E29" t="n">
-        <v>11.8376964589392</v>
+        <v>10.9475524184033</v>
       </c>
     </row>
     <row r="30">
@@ -4043,16 +4027,16 @@
         <v>2023</v>
       </c>
       <c r="B30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1.74605363995027</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.515940745467779</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>2.97616653443277</v>
       </c>
     </row>
     <row r="31">
@@ -4060,16 +4044,16 @@
         <v>2023</v>
       </c>
       <c r="B31" t="s">
-        <v>246</v>
+        <v>220</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>2.11420459803025</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.892620112690582</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>3.3357890833699</v>
       </c>
     </row>
     <row r="32">
@@ -4077,16 +4061,16 @@
         <v>2023</v>
       </c>
       <c r="B32" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.78173836990446</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.554548377993283</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>3.00892836181564</v>
       </c>
     </row>
     <row r="33">
@@ -4094,16 +4078,16 @@
         <v>2023</v>
       </c>
       <c r="B33" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>3.21437049410501</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>2.00854191130052</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>4.42019907690949</v>
       </c>
     </row>
     <row r="34">
@@ -4111,16 +4095,16 @@
         <v>2023</v>
       </c>
       <c r="B34" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C34" t="n">
-        <v>9.91029090732786</v>
+        <v>10.2730950653995</v>
       </c>
       <c r="D34" t="n">
-        <v>2.71481195765976</v>
+        <v>9.12394789038509</v>
       </c>
       <c r="E34" t="n">
-        <v>17.1057698569959</v>
+        <v>11.422242240414</v>
       </c>
     </row>
     <row r="35">
@@ -4128,16 +4112,16 @@
         <v>2023</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C35" t="n">
-        <v>175.282525416194</v>
+        <v>60.8249523787096</v>
       </c>
       <c r="D35" t="n">
-        <v>165.536196122159</v>
+        <v>58.0039447823761</v>
       </c>
       <c r="E35" t="n">
-        <v>185.028854710227</v>
+        <v>63.645959975043</v>
       </c>
     </row>
     <row r="36">
@@ -4145,16 +4129,16 @@
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1.77011295622974</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.542197589483046</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>2.99802832297643</v>
       </c>
     </row>
     <row r="37">
@@ -4162,16 +4146,16 @@
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="38">
@@ -4179,16 +4163,16 @@
         <v>2023</v>
       </c>
       <c r="B38" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C38" t="n">
-        <v>24.1114574201465</v>
+        <v>14.5735914088022</v>
       </c>
       <c r="D38" t="n">
-        <v>16.9362449182911</v>
+        <v>13.4020921464684</v>
       </c>
       <c r="E38" t="n">
-        <v>31.286669922002</v>
+        <v>15.745090671136</v>
       </c>
     </row>
     <row r="39">
@@ -4196,16 +4180,16 @@
         <v>2023</v>
       </c>
       <c r="B39" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="40">
@@ -4213,16 +4197,16 @@
         <v>2023</v>
       </c>
       <c r="B40" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>1.99968914494059</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>0.775297859217493</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>3.22408043066369</v>
       </c>
     </row>
     <row r="41">
@@ -4230,16 +4214,16 @@
         <v>2023</v>
       </c>
       <c r="B41" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>2.13593121183679</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.913981419769815</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.35788100390376</v>
       </c>
     </row>
     <row r="42">
@@ -4247,16 +4231,16 @@
         <v>2023</v>
       </c>
       <c r="B42" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>6.00752355642403</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>4.82906864586199</v>
       </c>
       <c r="E42" t="n">
-        <v>6.55898424316118</v>
+        <v>7.18597846698607</v>
       </c>
     </row>
     <row r="43">
@@ -4264,16 +4248,16 @@
         <v>2023</v>
       </c>
       <c r="B43" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="44">
@@ -4281,16 +4265,16 @@
         <v>2023</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C44" t="n">
-        <v>20.2853795450674</v>
+        <v>11.0894866346966</v>
       </c>
       <c r="D44" t="n">
-        <v>12.8763574952931</v>
+        <v>9.8833811951767</v>
       </c>
       <c r="E44" t="n">
-        <v>27.6944015948417</v>
+        <v>12.2955920742165</v>
       </c>
     </row>
     <row r="45">
@@ -4298,16 +4282,16 @@
         <v>2023</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C45" t="n">
-        <v>3.830420189471</v>
+        <v>6.83939505446482</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>5.6547979618459</v>
       </c>
       <c r="E45" t="n">
-        <v>11.2508706862554</v>
+        <v>8.02399214708374</v>
       </c>
     </row>
     <row r="46">
@@ -4315,16 +4299,16 @@
         <v>2023</v>
       </c>
       <c r="B46" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>2.21844448741125</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.997564954108954</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>3.43932402071354</v>
       </c>
     </row>
     <row r="47">
@@ -4332,16 +4316,16 @@
         <v>2023</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="C47" t="n">
-        <v>21129.2081340109</v>
+        <v>100.937043368928</v>
       </c>
       <c r="D47" t="n">
-        <v>20557.3360746147</v>
+        <v>96.2270443176704</v>
       </c>
       <c r="E47" t="n">
-        <v>21701.0801934071</v>
+        <v>105.647042420186</v>
       </c>
     </row>
     <row r="48">
@@ -4349,16 +4333,16 @@
         <v>2023</v>
       </c>
       <c r="B48" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>2.20538122333868</v>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>0.98489020195163</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>3.42587224472573</v>
       </c>
     </row>
     <row r="49">
@@ -4366,16 +4350,16 @@
         <v>2023</v>
       </c>
       <c r="B49" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>3.8723997391752</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>2.27028168075158</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>5.47451779759883</v>
       </c>
     </row>
     <row r="50">
@@ -4383,16 +4367,16 @@
         <v>2023</v>
       </c>
       <c r="B50" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>4.87226487479925</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>3.68313993581201</v>
       </c>
       <c r="E50" t="n">
-        <v>2.62952007400413</v>
+        <v>6.0613898137865</v>
       </c>
     </row>
     <row r="51">
@@ -4400,16 +4384,16 @@
         <v>2023</v>
       </c>
       <c r="B51" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="52">
@@ -4417,16 +4401,16 @@
         <v>2023</v>
       </c>
       <c r="B52" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="53">
@@ -4434,16 +4418,16 @@
         <v>2023</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C53" t="n">
-        <v>143.41357152887</v>
+        <v>58.5190476284265</v>
       </c>
       <c r="D53" t="n">
-        <v>131.327371208197</v>
+        <v>55.8848193612472</v>
       </c>
       <c r="E53" t="n">
-        <v>155.499771849545</v>
+        <v>61.1532758956058</v>
       </c>
     </row>
     <row r="54">
@@ -4451,16 +4435,16 @@
         <v>2023</v>
       </c>
       <c r="B54" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C54" t="n">
-        <v>223.688220419832</v>
+        <v>66.8729353418313</v>
       </c>
       <c r="D54" t="n">
-        <v>214.64543802068</v>
+        <v>63.3925814027311</v>
       </c>
       <c r="E54" t="n">
-        <v>232.731002818984</v>
+        <v>70.3532892809314</v>
       </c>
     </row>
     <row r="55">
@@ -4468,16 +4452,16 @@
         <v>2023</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C55" t="n">
-        <v>0</v>
+        <v>1.95154680212218</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>0.726376839444663</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>3.1767167647997</v>
       </c>
     </row>
     <row r="56">
@@ -4485,16 +4469,16 @@
         <v>2023</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>4.80786093229518</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>3.61461513248597</v>
       </c>
       <c r="E56" t="n">
-        <v>3.42229670829181</v>
+        <v>6.0011067321044</v>
       </c>
     </row>
     <row r="57">
@@ -4502,16 +4486,16 @@
         <v>2023</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C57" t="n">
-        <v>0.854020879754291</v>
+        <v>7.93087457435936</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>6.77676398399642</v>
       </c>
       <c r="E57" t="n">
-        <v>8.07148737500902</v>
+        <v>9.08498516472229</v>
       </c>
     </row>
     <row r="58">
@@ -4519,16 +4503,16 @@
         <v>2023</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>4.97283291162897</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>3.78069657927038</v>
       </c>
       <c r="E58" t="n">
-        <v>4.06477659366122</v>
+        <v>6.16496924398756</v>
       </c>
     </row>
     <row r="59">
@@ -4536,16 +4520,16 @@
         <v>2023</v>
       </c>
       <c r="B59" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>4.11215277588503</v>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>2.80212270654026</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>5.4221828452298</v>
       </c>
     </row>
     <row r="60">
@@ -4553,16 +4537,16 @@
         <v>2023</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C60" t="n">
-        <v>0</v>
+        <v>2.51151584781066</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1.29644056021712</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>3.7265911354042</v>
       </c>
     </row>
     <row r="61">
@@ -4570,16 +4554,16 @@
         <v>2023</v>
       </c>
       <c r="B61" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="62">
@@ -4587,16 +4571,16 @@
         <v>2023</v>
       </c>
       <c r="B62" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>19.0165640289804</v>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>16.9623336917192</v>
       </c>
       <c r="E62" t="n">
-        <v>4.24814356538853</v>
+        <v>21.0707943662414</v>
       </c>
     </row>
     <row r="63">
@@ -4607,13 +4591,13 @@
         <v>191</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="64">
@@ -4621,16 +4605,16 @@
         <v>2023</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="65">
@@ -4638,16 +4622,16 @@
         <v>2023</v>
       </c>
       <c r="B65" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>2.13166107153773</v>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>0.885805346700809</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>3.37751679637465</v>
       </c>
     </row>
     <row r="66">
@@ -4655,16 +4639,16 @@
         <v>2023</v>
       </c>
       <c r="B66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>3.61343023672403</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>2.41423619263456</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>4.81262428081351</v>
       </c>
     </row>
     <row r="67">
@@ -4672,16 +4656,16 @@
         <v>2023</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>2.13543108882316</v>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.913030821732551</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>3.35783135591377</v>
       </c>
     </row>
     <row r="68">
@@ -4692,13 +4676,13 @@
         <v>173</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1.78146456795593</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.553724807252264</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>3.0092043286596</v>
       </c>
     </row>
     <row r="69">
@@ -4706,16 +4690,16 @@
         <v>2023</v>
       </c>
       <c r="B69" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="70">
@@ -4723,16 +4707,16 @@
         <v>2023</v>
       </c>
       <c r="B70" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>1.80005813886433</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>0.572607198732813</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>3.02750907899585</v>
       </c>
     </row>
     <row r="71">
@@ -4740,16 +4724,16 @@
         <v>2023</v>
       </c>
       <c r="B71" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>1.77159172930368</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>0.543718325770654</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>2.9994651328367</v>
       </c>
     </row>
     <row r="72">
@@ -4757,16 +4741,16 @@
         <v>2023</v>
       </c>
       <c r="B72" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>6.0003138219322</v>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>4.82023071218734</v>
       </c>
       <c r="E72" t="n">
-        <v>0.862744988829329</v>
+        <v>7.18039693167706</v>
       </c>
     </row>
     <row r="73">
@@ -4774,16 +4758,16 @@
         <v>2023</v>
       </c>
       <c r="B73" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C73" t="n">
-        <v>0</v>
+        <v>1.82490295258556</v>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>0.597835405319426</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>3.0519704998517</v>
       </c>
     </row>
     <row r="74">
@@ -4791,16 +4775,16 @@
         <v>2023</v>
       </c>
       <c r="B74" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>6.31040918270743</v>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>5.1348497131952</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>7.48596865221965</v>
       </c>
     </row>
     <row r="75">
@@ -4808,16 +4792,16 @@
         <v>2023</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C75" t="n">
-        <v>17.6615895596507</v>
+        <v>14.1918800475278</v>
       </c>
       <c r="D75" t="n">
-        <v>10.1817401420333</v>
+        <v>12.9915581035205</v>
       </c>
       <c r="E75" t="n">
-        <v>25.1414389772679</v>
+        <v>15.3922019915351</v>
       </c>
     </row>
     <row r="76">
@@ -4825,16 +4809,16 @@
         <v>2023</v>
       </c>
       <c r="B76" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>1.78511070838566</v>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>0.558225493214231</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>3.01199592355708</v>
       </c>
     </row>
     <row r="77">
@@ -4842,16 +4826,16 @@
         <v>2023</v>
       </c>
       <c r="B77" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C77" t="n">
-        <v>118.137320471808</v>
+        <v>41.4622256573342</v>
       </c>
       <c r="D77" t="n">
-        <v>109.003326351215</v>
+        <v>39.3113243838893</v>
       </c>
       <c r="E77" t="n">
-        <v>127.2713145924</v>
+        <v>43.6131269307791</v>
       </c>
     </row>
     <row r="78">
@@ -4859,16 +4843,16 @@
         <v>2023</v>
       </c>
       <c r="B78" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>34.7790583131105</v>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>21.8833446087292</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>47.6747720174917</v>
       </c>
     </row>
     <row r="79">
@@ -4876,16 +4860,16 @@
         <v>2023</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>3.58146222746889</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>2.377320584196</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>4.78560387074178</v>
       </c>
     </row>
     <row r="80">
@@ -4893,16 +4877,16 @@
         <v>2023</v>
       </c>
       <c r="B80" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C80" t="n">
-        <v>43.8659926107809</v>
+        <v>36.2581847083282</v>
       </c>
       <c r="D80" t="n">
-        <v>29.0866790407216</v>
+        <v>33.8845091764072</v>
       </c>
       <c r="E80" t="n">
-        <v>58.6453061808402</v>
+        <v>38.6318602402491</v>
       </c>
     </row>
     <row r="81">
@@ -4910,16 +4894,16 @@
         <v>2023</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C81" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="82">
@@ -4927,16 +4911,16 @@
         <v>2023</v>
       </c>
       <c r="B82" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="83">
@@ -4944,16 +4928,16 @@
         <v>2023</v>
       </c>
       <c r="B83" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1.84295804965547</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>0.616788846901223</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>3.06912725240972</v>
       </c>
     </row>
     <row r="84">
@@ -4961,16 +4945,16 @@
         <v>2023</v>
       </c>
       <c r="B84" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="C84" t="n">
-        <v>0.419804087416249</v>
+        <v>7.48521007993158</v>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>6.31178511914396</v>
       </c>
       <c r="E84" t="n">
-        <v>7.75700020407718</v>
+        <v>8.65863504071919</v>
       </c>
     </row>
     <row r="85">
@@ -4978,16 +4962,16 @@
         <v>2023</v>
       </c>
       <c r="B85" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>4.53284179762749</v>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>3.02375803875182</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>6.04192555650316</v>
       </c>
     </row>
     <row r="86">
@@ -4995,16 +4979,16 @@
         <v>2023</v>
       </c>
       <c r="B86" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C86" t="n">
-        <v>23.5075328258495</v>
+        <v>18.01221416939</v>
       </c>
       <c r="D86" t="n">
-        <v>12.7366756158391</v>
+        <v>16.2841013705158</v>
       </c>
       <c r="E86" t="n">
-        <v>34.2783900358599</v>
+        <v>19.740326968264</v>
       </c>
     </row>
     <row r="87">
@@ -5012,16 +4996,16 @@
         <v>2023</v>
       </c>
       <c r="B87" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C87" t="n">
-        <v>1.48035450208617</v>
+        <v>6.22661919081093</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>5.04054022772698</v>
       </c>
       <c r="E87" t="n">
-        <v>8.90600384680089</v>
+        <v>7.41269815389487</v>
       </c>
     </row>
     <row r="88">
@@ -5029,16 +5013,16 @@
         <v>2023</v>
       </c>
       <c r="B88" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>2.14415243350442</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>0.921879476519767</v>
       </c>
       <c r="E88" t="n">
-        <v>0</v>
+        <v>3.36642539048906</v>
       </c>
     </row>
     <row r="89">
@@ -5046,16 +5030,16 @@
         <v>2023</v>
       </c>
       <c r="B89" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>2.57260071422962</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1.35832439303179</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>3.78687703542744</v>
       </c>
     </row>
     <row r="90">
@@ -5063,16 +5047,16 @@
         <v>2023</v>
       </c>
       <c r="B90" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>1.77159172930368</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>0.543718325770654</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>2.9994651328367</v>
       </c>
     </row>
     <row r="91">
@@ -5080,16 +5064,16 @@
         <v>2023</v>
       </c>
       <c r="B91" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>2.42631864012537</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>1.20817423582913</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>3.64446304442162</v>
       </c>
     </row>
     <row r="92">
@@ -5097,16 +5081,16 @@
         <v>2023</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C92" t="n">
-        <v>89.8078076474742</v>
+        <v>41.9352979258659</v>
       </c>
       <c r="D92" t="n">
-        <v>78.3084468573142</v>
+        <v>39.8191597587727</v>
       </c>
       <c r="E92" t="n">
-        <v>101.307168437634</v>
+        <v>44.0514360929591</v>
       </c>
     </row>
     <row r="93">
@@ -5114,16 +5098,16 @@
         <v>2023</v>
       </c>
       <c r="B93" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>3.3815378582073</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>2.17669586622815</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>4.58637985018645</v>
       </c>
     </row>
     <row r="94">
@@ -5131,16 +5115,16 @@
         <v>2023</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>4.89693700549728</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>3.71224465906319</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>6.08162935193138</v>
       </c>
     </row>
     <row r="95">
@@ -5148,16 +5132,16 @@
         <v>2023</v>
       </c>
       <c r="B95" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>1.79354697772396</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>0.566169355897543</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>3.02092459955037</v>
       </c>
     </row>
     <row r="96">
@@ -5165,16 +5149,16 @@
         <v>2023</v>
       </c>
       <c r="B96" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C96" t="n">
-        <v>0</v>
+        <v>4.18721800125256</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>2.91854094284924</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>5.45589505965588</v>
       </c>
     </row>
     <row r="97">
@@ -5182,16 +5166,16 @@
         <v>2023</v>
       </c>
       <c r="B97" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1.76957555121447</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>0.541654328321528</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>2.99749677410741</v>
       </c>
     </row>
     <row r="98">
@@ -5199,16 +5183,16 @@
         <v>2023</v>
       </c>
       <c r="B98" t="s">
-        <v>53</v>
+        <v>251</v>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="99">
@@ -5216,16 +5200,16 @@
         <v>2023</v>
       </c>
       <c r="B99" t="s">
-        <v>139</v>
+        <v>184</v>
       </c>
       <c r="C99" t="n">
-        <v>0</v>
+        <v>2.2855325558841</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>1.06648271588669</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>3.50458239588152</v>
       </c>
     </row>
     <row r="100">
@@ -5233,16 +5217,16 @@
         <v>2023</v>
       </c>
       <c r="B100" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C100" t="n">
-        <v>14.8137433293217</v>
+        <v>12.3119163685467</v>
       </c>
       <c r="D100" t="n">
-        <v>7.62323759574462</v>
+        <v>11.159464491178</v>
       </c>
       <c r="E100" t="n">
-        <v>22.0042490628988</v>
+        <v>13.4643682459154</v>
       </c>
     </row>
     <row r="101">
@@ -5250,16 +5234,16 @@
         <v>2023</v>
       </c>
       <c r="B101" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>3.74729570894671</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>2.54768346194585</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>4.94690795594758</v>
       </c>
     </row>
     <row r="102">
@@ -5267,16 +5251,16 @@
         <v>2023</v>
       </c>
       <c r="B102" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="103">
@@ -5284,16 +5268,16 @@
         <v>2023</v>
       </c>
       <c r="B103" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>5.7729636494171</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>4.58832825694222</v>
       </c>
       <c r="E103" t="n">
-        <v>6.69651792730968</v>
+        <v>6.95759904189198</v>
       </c>
     </row>
     <row r="104">
@@ -5301,16 +5285,16 @@
         <v>2023</v>
       </c>
       <c r="B104" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="105">
@@ -5318,16 +5302,16 @@
         <v>2023</v>
       </c>
       <c r="B105" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>2.05017114915256</v>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>0.826515498269419</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>3.2738268000357</v>
       </c>
     </row>
     <row r="106">
@@ -5335,16 +5319,16 @@
         <v>2023</v>
       </c>
       <c r="B106" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C106" t="n">
-        <v>24.3836326195079</v>
+        <v>13.0374189572701</v>
       </c>
       <c r="D106" t="n">
-        <v>17.0148758412115</v>
+        <v>11.8283020262843</v>
       </c>
       <c r="E106" t="n">
-        <v>31.7523893978042</v>
+        <v>14.246535888256</v>
       </c>
     </row>
     <row r="107">
@@ -5352,16 +5336,16 @@
         <v>2023</v>
       </c>
       <c r="B107" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C107" t="n">
-        <v>42.7713873871357</v>
+        <v>18.8365944171917</v>
       </c>
       <c r="D107" t="n">
-        <v>35.233269221639</v>
+        <v>17.5209061955249</v>
       </c>
       <c r="E107" t="n">
-        <v>50.3095055526323</v>
+        <v>20.1522826388584</v>
       </c>
     </row>
     <row r="108">
@@ -5369,16 +5353,16 @@
         <v>2023</v>
       </c>
       <c r="B108" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="109">
@@ -5386,16 +5370,16 @@
         <v>2023</v>
       </c>
       <c r="B109" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C109" t="n">
-        <v>6.82720972858786</v>
+        <v>9.58559936031179</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>8.43789604253678</v>
       </c>
       <c r="E109" t="n">
-        <v>14.0212544029455</v>
+        <v>10.7333026780869</v>
       </c>
     </row>
     <row r="110">
@@ -5403,16 +5387,16 @@
         <v>2023</v>
       </c>
       <c r="B110" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="111">
@@ -5420,16 +5404,16 @@
         <v>2023</v>
       </c>
       <c r="B111" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C111" t="n">
-        <v>12.6787321690439</v>
+        <v>10.914332930375</v>
       </c>
       <c r="D111" t="n">
-        <v>5.44750450429974</v>
+        <v>9.75672197425893</v>
       </c>
       <c r="E111" t="n">
-        <v>19.9099598337882</v>
+        <v>12.0719438864911</v>
       </c>
     </row>
     <row r="112">
@@ -5437,16 +5421,16 @@
         <v>2023</v>
       </c>
       <c r="B112" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>2.51594270500517</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>1.29880932313542</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>3.73307608687491</v>
       </c>
     </row>
     <row r="113">
@@ -5454,16 +5438,16 @@
         <v>2023</v>
       </c>
       <c r="B113" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>1.83173717134841</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>0.605987665971511</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>3.0574866767253</v>
       </c>
     </row>
     <row r="114">
@@ -5471,16 +5455,16 @@
         <v>2023</v>
       </c>
       <c r="B114" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="115">
@@ -5488,16 +5472,16 @@
         <v>2023</v>
       </c>
       <c r="B115" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>4.86931889677298</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>3.68878280165557</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>6.04985499189039</v>
       </c>
     </row>
     <row r="116">
@@ -5508,13 +5492,13 @@
         <v>199</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>1.77041439796831</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>0.542502554870853</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>2.99832624106577</v>
       </c>
     </row>
     <row r="117">
@@ -5525,13 +5509,13 @@
         <v>132</v>
       </c>
       <c r="C117" t="n">
-        <v>19.1660213946282</v>
+        <v>10.7905302989425</v>
       </c>
       <c r="D117" t="n">
-        <v>11.7546753612891</v>
+        <v>9.58713100047213</v>
       </c>
       <c r="E117" t="n">
-        <v>26.5773674279673</v>
+        <v>11.993929597413</v>
       </c>
     </row>
     <row r="118">
@@ -5539,16 +5523,16 @@
         <v>2023</v>
       </c>
       <c r="B118" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C118" t="n">
-        <v>9.90922621405307</v>
+        <v>10.8692597871107</v>
       </c>
       <c r="D118" t="n">
-        <v>2.7293893050797</v>
+        <v>9.72313583516478</v>
       </c>
       <c r="E118" t="n">
-        <v>17.0890631230264</v>
+        <v>12.0153837390565</v>
       </c>
     </row>
     <row r="119">
@@ -5556,16 +5540,16 @@
         <v>2023</v>
       </c>
       <c r="B119" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C119" t="n">
-        <v>65.5154248079672</v>
+        <v>28.1188662719961</v>
       </c>
       <c r="D119" t="n">
-        <v>57.8928676516935</v>
+        <v>26.657141286885</v>
       </c>
       <c r="E119" t="n">
-        <v>73.1379819642409</v>
+        <v>29.5805912571073</v>
       </c>
     </row>
     <row r="120">
@@ -5573,16 +5557,16 @@
         <v>2023</v>
       </c>
       <c r="B120" t="s">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="C120" t="n">
-        <v>0</v>
+        <v>3.26758804809276</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>2.0597909098077</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>4.47538518637781</v>
       </c>
     </row>
     <row r="121">
@@ -5590,16 +5574,16 @@
         <v>2023</v>
       </c>
       <c r="B121" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="122">
@@ -5607,16 +5591,16 @@
         <v>2023</v>
       </c>
       <c r="B122" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C122" t="n">
-        <v>146.439324125521</v>
+        <v>44.473329135711</v>
       </c>
       <c r="D122" t="n">
-        <v>138.390845087694</v>
+        <v>42.0352951105842</v>
       </c>
       <c r="E122" t="n">
-        <v>154.487803163348</v>
+        <v>46.9113631608378</v>
       </c>
     </row>
     <row r="123">
@@ -5624,16 +5608,16 @@
         <v>2023</v>
       </c>
       <c r="B123" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C123" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="124">
@@ -5641,16 +5625,16 @@
         <v>2023</v>
       </c>
       <c r="B124" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="125">
@@ -5658,16 +5642,16 @@
         <v>2023</v>
       </c>
       <c r="B125" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1.82093714662239</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>0.594038019837212</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>3.04783627340757</v>
       </c>
     </row>
     <row r="126">
@@ -5675,16 +5659,16 @@
         <v>2023</v>
       </c>
       <c r="B126" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C126" t="n">
-        <v>133.200019180332</v>
+        <v>45.2481497297015</v>
       </c>
       <c r="D126" t="n">
-        <v>125.166367249885</v>
+        <v>43.0348332085979</v>
       </c>
       <c r="E126" t="n">
-        <v>141.233671110777</v>
+        <v>47.4614662508051</v>
       </c>
     </row>
     <row r="127">
@@ -5692,16 +5676,16 @@
         <v>2023</v>
       </c>
       <c r="B127" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C127" t="n">
-        <v>0</v>
+        <v>1.84474389047164</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>0.618129026918277</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>3.071358754025</v>
       </c>
     </row>
     <row r="128">
@@ -5709,16 +5693,16 @@
         <v>2023</v>
       </c>
       <c r="B128" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C128" t="n">
-        <v>77.4518895093913</v>
+        <v>36.5816312699963</v>
       </c>
       <c r="D128" t="n">
-        <v>67.8139388172569</v>
+        <v>34.8001033959452</v>
       </c>
       <c r="E128" t="n">
-        <v>87.0898402015257</v>
+        <v>38.3631591440473</v>
       </c>
     </row>
     <row r="129">
@@ -5726,16 +5710,16 @@
         <v>2023</v>
       </c>
       <c r="B129" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C129" t="n">
-        <v>48.20437933881</v>
+        <v>19.7315910277539</v>
       </c>
       <c r="D129" t="n">
-        <v>40.7395649069449</v>
+        <v>18.3899768357732</v>
       </c>
       <c r="E129" t="n">
-        <v>55.669193770675</v>
+        <v>21.0732052197348</v>
       </c>
     </row>
     <row r="130">
@@ -5743,16 +5727,16 @@
         <v>2023</v>
       </c>
       <c r="B130" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="131">
@@ -5760,16 +5744,16 @@
         <v>2023</v>
       </c>
       <c r="B131" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C131" t="n">
-        <v>0</v>
+        <v>1.85797679913564</v>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>0.631613026279496</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>3.08434057199177</v>
       </c>
     </row>
     <row r="132">
@@ -5777,16 +5761,16 @@
         <v>2023</v>
       </c>
       <c r="B132" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>1.79978843109818</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>0.573580380653508</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>3.02599648154284</v>
       </c>
     </row>
     <row r="133">
@@ -5794,16 +5778,16 @@
         <v>2023</v>
       </c>
       <c r="B133" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C133" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="134">
@@ -5811,16 +5795,16 @@
         <v>2023</v>
       </c>
       <c r="B134" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>3.14832333009272</v>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>1.91245521636596</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>4.38419144381948</v>
       </c>
     </row>
     <row r="135">
@@ -5828,16 +5812,16 @@
         <v>2023</v>
       </c>
       <c r="B135" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C135" t="n">
-        <v>39.1931240440688</v>
+        <v>37.7607565572001</v>
       </c>
       <c r="D135" t="n">
-        <v>11.609758154555</v>
+        <v>33.3541662052648</v>
       </c>
       <c r="E135" t="n">
-        <v>66.7764899335827</v>
+        <v>42.1673469091353</v>
       </c>
     </row>
     <row r="136">
@@ -5845,16 +5829,16 @@
         <v>2023</v>
       </c>
       <c r="B136" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>1.89605594493889</v>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>0.667009895735374</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>3.12510199414241</v>
       </c>
     </row>
     <row r="137">
@@ -5862,16 +5846,16 @@
         <v>2023</v>
       </c>
       <c r="B137" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="138">
@@ -5879,16 +5863,16 @@
         <v>2023</v>
       </c>
       <c r="B138" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C138" t="n">
-        <v>0</v>
+        <v>3.41153503196025</v>
       </c>
       <c r="D138" t="n">
-        <v>0</v>
+        <v>2.20879770935639</v>
       </c>
       <c r="E138" t="n">
-        <v>0</v>
+        <v>4.61427235456412</v>
       </c>
     </row>
     <row r="139">
@@ -5896,16 +5880,16 @@
         <v>2023</v>
       </c>
       <c r="B139" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>3.11089345779041</v>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>1.90370709878596</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>4.31807981679486</v>
       </c>
     </row>
     <row r="140">
@@ -5913,16 +5897,16 @@
         <v>2023</v>
       </c>
       <c r="B140" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>2.06968058212646</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>0.846313919152023</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>3.2930472451009</v>
       </c>
     </row>
     <row r="141">
@@ -5930,16 +5914,16 @@
         <v>2023</v>
       </c>
       <c r="B141" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>2.05347246004958</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>0.829875837699291</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>3.27706908239987</v>
       </c>
     </row>
     <row r="142">
@@ -5947,16 +5931,16 @@
         <v>2023</v>
       </c>
       <c r="B142" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>2.47203365767911</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>1.25472369759102</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>3.68934361776718</v>
       </c>
     </row>
     <row r="143">
@@ -5964,16 +5948,16 @@
         <v>2023</v>
       </c>
       <c r="B143" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1.79559125891395</v>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>0.569219526619728</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>3.02196299120818</v>
       </c>
     </row>
     <row r="144">
@@ -5981,16 +5965,16 @@
         <v>2023</v>
       </c>
       <c r="B144" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C144" t="n">
-        <v>129.897744446651</v>
+        <v>47.0361291983937</v>
       </c>
       <c r="D144" t="n">
-        <v>121.11390524602</v>
+        <v>44.8602662449966</v>
       </c>
       <c r="E144" t="n">
-        <v>138.681583647283</v>
+        <v>49.2119921517909</v>
       </c>
     </row>
     <row r="145">
@@ -5998,16 +5982,16 @@
         <v>2023</v>
       </c>
       <c r="B145" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C145" t="n">
-        <v>0</v>
+        <v>4.2778304331606</v>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>3.08451258538393</v>
       </c>
       <c r="E145" t="n">
-        <v>0.207900891552715</v>
+        <v>5.47114828093728</v>
       </c>
     </row>
     <row r="146">
@@ -6015,16 +5999,16 @@
         <v>2023</v>
       </c>
       <c r="B146" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C146" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="147">
@@ -6032,16 +6016,16 @@
         <v>2023</v>
       </c>
       <c r="B147" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="148">
@@ -6049,16 +6033,16 @@
         <v>2023</v>
       </c>
       <c r="B148" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C148" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="149">
@@ -6066,16 +6050,16 @@
         <v>2023</v>
       </c>
       <c r="B149" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>1.8153222653997</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>0.589353512529129</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>3.04129101827028</v>
       </c>
     </row>
     <row r="150">
@@ -6083,16 +6067,16 @@
         <v>2023</v>
       </c>
       <c r="B150" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C150" t="n">
-        <v>73.9474684025235</v>
+        <v>28.7036757384621</v>
       </c>
       <c r="D150" t="n">
-        <v>65.7574762866402</v>
+        <v>27.0784079500015</v>
       </c>
       <c r="E150" t="n">
-        <v>82.1374605184069</v>
+        <v>30.3289435269226</v>
       </c>
     </row>
     <row r="151">
@@ -6100,16 +6084,16 @@
         <v>2023</v>
       </c>
       <c r="B151" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C151" t="n">
-        <v>67.112873441172</v>
+        <v>24.6294583441063</v>
       </c>
       <c r="D151" t="n">
-        <v>59.7077594060982</v>
+        <v>23.1446365154082</v>
       </c>
       <c r="E151" t="n">
-        <v>74.5179874762458</v>
+        <v>26.1142801728046</v>
       </c>
     </row>
     <row r="152">
@@ -6117,16 +6101,16 @@
         <v>2023</v>
       </c>
       <c r="B152" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C152" t="n">
-        <v>42.9785286032089</v>
+        <v>16.9863882343884</v>
       </c>
       <c r="D152" t="n">
-        <v>35.5482186056744</v>
+        <v>15.6710725881558</v>
       </c>
       <c r="E152" t="n">
-        <v>50.4088386007436</v>
+        <v>18.3017038806209</v>
       </c>
     </row>
     <row r="153">
@@ -6134,16 +6118,16 @@
         <v>2023</v>
       </c>
       <c r="B153" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C153" t="n">
-        <v>178.889647437046</v>
+        <v>56.5479272227028</v>
       </c>
       <c r="D153" t="n">
-        <v>170.548496292677</v>
+        <v>53.7238326109237</v>
       </c>
       <c r="E153" t="n">
-        <v>187.230798581415</v>
+        <v>59.3720218344819</v>
       </c>
     </row>
     <row r="154">
@@ -6151,16 +6135,16 @@
         <v>2023</v>
       </c>
       <c r="B154" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>1.97190836867626</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>0.747083149491456</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>3.19673358786106</v>
       </c>
     </row>
     <row r="155">
@@ -6168,16 +6152,16 @@
         <v>2023</v>
       </c>
       <c r="B155" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>2.03993488192777</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>0.816194463672893</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>3.26367530018265</v>
       </c>
     </row>
     <row r="156">
@@ -6185,16 +6169,16 @@
         <v>2023</v>
       </c>
       <c r="B156" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C156" t="n">
-        <v>0</v>
+        <v>1.78511070838566</v>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>0.558225493214231</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>3.01199592355708</v>
       </c>
     </row>
     <row r="157">
@@ -6202,16 +6186,16 @@
         <v>2023</v>
       </c>
       <c r="B157" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="158">
@@ -6219,16 +6203,16 @@
         <v>2023</v>
       </c>
       <c r="B158" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>1.76957555121447</v>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>0.541654328321528</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>2.99749677410741</v>
       </c>
     </row>
     <row r="159">
@@ -6236,16 +6220,16 @@
         <v>2023</v>
       </c>
       <c r="B159" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="160">
@@ -6253,16 +6237,16 @@
         <v>2023</v>
       </c>
       <c r="B160" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C160" t="n">
-        <v>406.971420334325</v>
+        <v>139.487781841863</v>
       </c>
       <c r="D160" t="n">
-        <v>382.732177736657</v>
+        <v>132.815864810091</v>
       </c>
       <c r="E160" t="n">
-        <v>431.210662931993</v>
+        <v>146.159698873635</v>
       </c>
     </row>
     <row r="161">
@@ -6270,16 +6254,16 @@
         <v>2023</v>
       </c>
       <c r="B161" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>4.68609223348117</v>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>3.49211721075657</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>5.88006725620576</v>
       </c>
     </row>
     <row r="162">
@@ -6287,16 +6271,16 @@
         <v>2023</v>
       </c>
       <c r="B162" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C162" t="n">
-        <v>21.2454083685754</v>
+        <v>13.0849021810355</v>
       </c>
       <c r="D162" t="n">
-        <v>14.0019256187918</v>
+        <v>11.907807796488</v>
       </c>
       <c r="E162" t="n">
-        <v>28.488891118359</v>
+        <v>14.2619965655831</v>
       </c>
     </row>
     <row r="163">
@@ -6304,16 +6288,16 @@
         <v>2023</v>
       </c>
       <c r="B163" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>2.28562466581683</v>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>1.06538813699287</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>3.50586119464079</v>
       </c>
     </row>
     <row r="164">
@@ -6321,16 +6305,16 @@
         <v>2023</v>
       </c>
       <c r="B164" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>3.57430643856512</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>2.37547015743191</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>4.77314271969833</v>
       </c>
     </row>
     <row r="165">
@@ -6338,16 +6322,16 @@
         <v>2023</v>
       </c>
       <c r="B165" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1.92134822251118</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>0.695813770488043</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>3.14688267453433</v>
       </c>
     </row>
     <row r="166">
@@ -6355,16 +6339,16 @@
         <v>2023</v>
       </c>
       <c r="B166" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="C166" t="n">
-        <v>0</v>
+        <v>1.78907021418042</v>
       </c>
       <c r="D166" t="n">
-        <v>0</v>
+        <v>0.561785456657877</v>
       </c>
       <c r="E166" t="n">
-        <v>0</v>
+        <v>3.01635497170295</v>
       </c>
     </row>
     <row r="167">
@@ -6372,16 +6356,16 @@
         <v>2023</v>
       </c>
       <c r="B167" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="168">
@@ -6389,16 +6373,16 @@
         <v>2023</v>
       </c>
       <c r="B168" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1.78239752271165</v>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>0.554672275881654</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>3.01012276954164</v>
       </c>
     </row>
     <row r="169">
@@ -6406,16 +6390,16 @@
         <v>2023</v>
       </c>
       <c r="B169" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C169" t="n">
-        <v>0</v>
+        <v>1.98828694724661</v>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>0.763001983425533</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>3.21357191106767</v>
       </c>
     </row>
     <row r="170">
@@ -6423,16 +6407,16 @@
         <v>2023</v>
       </c>
       <c r="B170" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>2.19157606350608</v>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>0.963469829313702</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>3.41968229769846</v>
       </c>
     </row>
     <row r="171">
@@ -6440,16 +6424,16 @@
         <v>2023</v>
       </c>
       <c r="B171" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>4.72008324418857</v>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>3.53134502582085</v>
       </c>
       <c r="E171" t="n">
-        <v>1.97908364595567</v>
+        <v>5.90882146255629</v>
       </c>
     </row>
     <row r="172">
@@ -6457,16 +6441,16 @@
         <v>2023</v>
       </c>
       <c r="B172" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="C172" t="n">
-        <v>99.8856949166842</v>
+        <v>52.0708499671798</v>
       </c>
       <c r="D172" t="n">
-        <v>84.5679083578028</v>
+        <v>49.3983985361029</v>
       </c>
       <c r="E172" t="n">
-        <v>115.203481475566</v>
+        <v>54.7433013982567</v>
       </c>
     </row>
     <row r="173">
@@ -6474,16 +6458,16 @@
         <v>2023</v>
       </c>
       <c r="B173" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C173" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="174">
@@ -6491,16 +6475,16 @@
         <v>2023</v>
       </c>
       <c r="B174" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>3.18448351929148</v>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>1.97805397060746</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>4.39091306797549</v>
       </c>
     </row>
     <row r="175">
@@ -6508,16 +6492,16 @@
         <v>2023</v>
       </c>
       <c r="B175" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="C175" t="n">
-        <v>27.9559863033485</v>
+        <v>14.8924134977269</v>
       </c>
       <c r="D175" t="n">
-        <v>20.6602521522693</v>
+        <v>13.6859013922361</v>
       </c>
       <c r="E175" t="n">
-        <v>35.2517204544277</v>
+        <v>16.0989256032177</v>
       </c>
     </row>
     <row r="176">
@@ -6525,16 +6509,16 @@
         <v>2023</v>
       </c>
       <c r="B176" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C176" t="n">
-        <v>435.870600342453</v>
+        <v>178.677110854569</v>
       </c>
       <c r="D176" t="n">
-        <v>364.433885794632</v>
+        <v>166.081718299114</v>
       </c>
       <c r="E176" t="n">
-        <v>507.307314890272</v>
+        <v>191.272503410024</v>
       </c>
     </row>
     <row r="177">
@@ -6542,16 +6526,16 @@
         <v>2023</v>
       </c>
       <c r="B177" t="s">
-        <v>258</v>
+        <v>207</v>
       </c>
       <c r="C177" t="n">
-        <v>0</v>
+        <v>2.94888400477615</v>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>1.68415445913491</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>4.2136135504174</v>
       </c>
     </row>
     <row r="178">
@@ -6559,16 +6543,16 @@
         <v>2023</v>
       </c>
       <c r="B178" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C178" t="n">
-        <v>81.0882368703008</v>
+        <v>32.5795038104804</v>
       </c>
       <c r="D178" t="n">
-        <v>67.1969108211387</v>
+        <v>30.1358549850639</v>
       </c>
       <c r="E178" t="n">
-        <v>94.9795629194629</v>
+        <v>35.0231526358969</v>
       </c>
     </row>
     <row r="179">
@@ -6579,13 +6563,13 @@
         <v>213</v>
       </c>
       <c r="C179" t="n">
-        <v>0</v>
+        <v>1.77159172930368</v>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>0.543718325770654</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>2.9994651328367</v>
       </c>
     </row>
     <row r="180">
@@ -6593,16 +6577,16 @@
         <v>2023</v>
       </c>
       <c r="B180" t="s">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C180" t="n">
-        <v>10.1178821954374</v>
+        <v>9.245413141957</v>
       </c>
       <c r="D180" t="n">
-        <v>2.82808777720217</v>
+        <v>8.07961120594224</v>
       </c>
       <c r="E180" t="n">
-        <v>17.4076766136727</v>
+        <v>10.4112150779717</v>
       </c>
     </row>
     <row r="181">
@@ -6610,16 +6594,16 @@
         <v>2023</v>
       </c>
       <c r="B181" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C181" t="n">
-        <v>0</v>
+        <v>3.56458888551502</v>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>2.36326483546532</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>4.76591293556473</v>
       </c>
     </row>
     <row r="182">
@@ -6627,16 +6611,16 @@
         <v>2023</v>
       </c>
       <c r="B182" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C182" t="n">
-        <v>0</v>
+        <v>2.11876015536675</v>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>0.896275921954675</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>3.34124438877882</v>
       </c>
     </row>
     <row r="183">
@@ -6644,16 +6628,16 @@
         <v>2023</v>
       </c>
       <c r="B183" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1.76951562800361</v>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>0.541589774220684</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>2.99744148178654</v>
       </c>
     </row>
     <row r="184">
@@ -6661,16 +6645,16 @@
         <v>2023</v>
       </c>
       <c r="B184" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C184" t="n">
-        <v>0</v>
+        <v>1.81186638911157</v>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>0.584820031500914</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>3.03891274672223</v>
       </c>
     </row>
     <row r="185">
@@ -6678,16 +6662,16 @@
         <v>2023</v>
       </c>
       <c r="B185" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="C185" t="n">
-        <v>0</v>
+        <v>6.11429575746469</v>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>3.8172238711212</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>8.41136764380818</v>
       </c>
     </row>
     <row r="186">
@@ -6695,16 +6679,16 @@
         <v>2023</v>
       </c>
       <c r="B186" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C186" t="n">
-        <v>260.521657170256</v>
+        <v>79.3664970585315</v>
       </c>
       <c r="D186" t="n">
-        <v>250.639671179111</v>
+        <v>75.387162304446</v>
       </c>
       <c r="E186" t="n">
-        <v>270.403643161401</v>
+        <v>83.3458318126171</v>
       </c>
     </row>
     <row r="187">
@@ -6712,16 +6696,16 @@
         <v>2023</v>
       </c>
       <c r="B187" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>3.7350064116039</v>
       </c>
       <c r="D187" t="n">
-        <v>0</v>
+        <v>2.5371119045613</v>
       </c>
       <c r="E187" t="n">
-        <v>0</v>
+        <v>4.9329009186465</v>
       </c>
     </row>
     <row r="188">
@@ -6729,16 +6713,16 @@
         <v>2023</v>
       </c>
       <c r="B188" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C188" t="n">
-        <v>0</v>
+        <v>3.49377554136924</v>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>2.24454209503259</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>4.74300898770589</v>
       </c>
     </row>
     <row r="189">
@@ -6746,16 +6730,16 @@
         <v>2023</v>
       </c>
       <c r="B189" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>2.52554532619074</v>
       </c>
       <c r="D189" t="n">
-        <v>0</v>
+        <v>1.3118244828234</v>
       </c>
       <c r="E189" t="n">
-        <v>0</v>
+        <v>3.73926616955809</v>
       </c>
     </row>
   </sheetData>
@@ -6791,7 +6775,7 @@
         <v>2018</v>
       </c>
       <c r="B2" t="n">
-        <v>2901.230926</v>
+        <v>2390.252433</v>
       </c>
       <c r="C2"/>
       <c r="D2"/>
@@ -6801,7 +6785,7 @@
         <v>2019</v>
       </c>
       <c r="B3" t="n">
-        <v>2944.725215</v>
+        <v>2282.879287</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -6811,7 +6795,7 @@
         <v>2020</v>
       </c>
       <c r="B4" t="n">
-        <v>3683.025173</v>
+        <v>2197.379757</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -6821,7 +6805,7 @@
         <v>2021</v>
       </c>
       <c r="B5" t="n">
-        <v>3795.785531</v>
+        <v>1857.22413</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -6831,7 +6815,7 @@
         <v>2022</v>
       </c>
       <c r="B6" t="n">
-        <v>9758.15891900001</v>
+        <v>2201.722372</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -6841,13 +6825,13 @@
         <v>2023</v>
       </c>
       <c r="B7" t="n">
-        <v>24880.7089010771</v>
+        <v>2074.53894839606</v>
       </c>
       <c r="C7" t="n">
-        <v>23840.5754357379</v>
+        <v>1779.94962031111</v>
       </c>
       <c r="D7" t="n">
-        <v>25996.6101794061</v>
+        <v>2369.12827648101</v>
       </c>
     </row>
   </sheetData>
